--- a/resources/Sql/INSERTS CONTROLES/Loqueada.xlsx
+++ b/resources/Sql/INSERTS CONTROLES/Loqueada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\CICLO_VI\BOY (INGENIERIA DE DATOS II)\PROYECTO\WinTransporteUrbano\resources\Sql\INSERTS CONTROLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886DB4AF-3E5B-4DCC-848E-71F5A354DF86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BDF290-94E8-4CED-8470-251D185FAFA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD9FA00F-1873-4654-99B9-DBD217F563D1}"/>
   </bookViews>
@@ -945,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AC6838-A3EE-410E-A883-2511ADBB8321}">
   <dimension ref="B1:AR103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN16" sqref="AN16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,23 +1171,23 @@
       </c>
       <c r="AN3" s="43">
         <f ca="1">AH22</f>
-        <v>0.33973388123673054</v>
+        <v>0.34170778490637538</v>
       </c>
       <c r="AO3" s="44">
         <f t="shared" ref="AO3:AR3" ca="1" si="0">AI22</f>
-        <v>0.46910150407489859</v>
+        <v>0.48006674261299431</v>
       </c>
       <c r="AP3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58933385436672148</v>
+        <v>0.5966705586677592</v>
       </c>
       <c r="AQ3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72498089004080279</v>
+        <v>0.72151742643687422</v>
       </c>
       <c r="AR3" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83951137263646769</v>
+        <v>0.85159196147288452</v>
       </c>
     </row>
     <row r="4" spans="2:44" x14ac:dyDescent="0.25">
@@ -1313,43 +1313,43 @@
       </c>
       <c r="AH4" s="7">
         <f t="shared" ref="AH4:AH22" ca="1" si="22">(AH3+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.25292081109272169</v>
+        <v>0.25254239244824739</v>
       </c>
       <c r="AI4" s="7">
         <f t="shared" ref="AI4:AI22" ca="1" si="23">(AI3+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.37674291349154082</v>
+        <v>0.37675035791458217</v>
       </c>
       <c r="AJ4" s="7">
         <f t="shared" ref="AJ4:AJ22" ca="1" si="24">(AJ3+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.50200554375771178</v>
+        <v>0.50349345942283741</v>
       </c>
       <c r="AK4" s="7">
         <f t="shared" ref="AK4:AK22" ca="1" si="25">(AK3+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.62703506811715282</v>
+        <v>0.62727242033060637</v>
       </c>
       <c r="AL4" s="7">
         <f t="shared" ref="AL4:AL22" ca="1" si="26">(AL3+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.75295205191406134</v>
+        <v>0.75303340601056612</v>
       </c>
       <c r="AN4" s="38">
         <f ca="1">AH42</f>
-        <v>0.33884088051349931</v>
+        <v>0.32876552308085649</v>
       </c>
       <c r="AO4" s="37">
         <f t="shared" ref="AO4:AR4" ca="1" si="27">AI42</f>
-        <v>0.48072031437125795</v>
+        <v>0.47962505199567029</v>
       </c>
       <c r="AP4" s="37">
         <f t="shared" ca="1" si="27"/>
-        <v>0.60297787551530968</v>
+        <v>0.59125044258159454</v>
       </c>
       <c r="AQ4" s="37">
         <f t="shared" ca="1" si="27"/>
-        <v>0.73154271804709103</v>
+        <v>0.73828567448282667</v>
       </c>
       <c r="AR4" s="39">
         <f t="shared" ca="1" si="27"/>
-        <v>0.84862430461844562</v>
+        <v>0.85807173983078633</v>
       </c>
     </row>
     <row r="5" spans="2:44" x14ac:dyDescent="0.25">
@@ -1472,47 +1472,47 @@
       </c>
       <c r="AF5" s="23">
         <f t="shared" ref="AF5:AF23" ca="1" si="54">(-$AE5)+RAND()*($AD5)</f>
-        <v>3.3065766550897501E-5</v>
+        <v>-3.6695368538634007E-4</v>
       </c>
       <c r="AH5" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.25408070594751092</v>
+        <v>0.25434094856148276</v>
       </c>
       <c r="AI5" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.3785832304674408</v>
+        <v>0.37819336038284995</v>
       </c>
       <c r="AJ5" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.50370866875728282</v>
+        <v>0.50499493177626531</v>
       </c>
       <c r="AK5" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.62881690846626104</v>
+        <v>0.62801939020039688</v>
       </c>
       <c r="AL5" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.75462116970522097</v>
+        <v>0.75380619979416563</v>
       </c>
       <c r="AN5" s="38">
         <f ca="1">AH62</f>
-        <v>0.37095614645369807</v>
+        <v>0.35280068577232826</v>
       </c>
       <c r="AO5" s="37">
         <f t="shared" ref="AO5:AR5" ca="1" si="55">AI62</f>
-        <v>0.47424073140165079</v>
+        <v>0.48262964748351295</v>
       </c>
       <c r="AP5" s="37">
         <f t="shared" ca="1" si="55"/>
-        <v>0.6058639915936026</v>
+        <v>0.60998765435562763</v>
       </c>
       <c r="AQ5" s="37">
         <f t="shared" ca="1" si="55"/>
-        <v>0.72913009800796524</v>
+        <v>0.72700564609104479</v>
       </c>
       <c r="AR5" s="39">
         <f t="shared" ca="1" si="55"/>
-        <v>0.85444603308373102</v>
+        <v>0.8471340185478724</v>
       </c>
     </row>
     <row r="6" spans="2:44" x14ac:dyDescent="0.25">
@@ -1635,47 +1635,47 @@
       </c>
       <c r="AF6" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>-1.2945991633374018E-4</v>
+        <v>5.2622219291969976E-4</v>
       </c>
       <c r="AH6" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.26459343386114609</v>
+        <v>0.25983360735217043</v>
       </c>
       <c r="AI6" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.38415345735675022</v>
+        <v>0.38873995386580562</v>
       </c>
       <c r="AJ6" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.51162805282563295</v>
+        <v>0.51452560715983675</v>
       </c>
       <c r="AK6" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.63558370501262185</v>
+        <v>0.63377707711770426</v>
       </c>
       <c r="AL6" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.76451820400510062</v>
+        <v>0.7585681045476379</v>
       </c>
       <c r="AN6" s="38">
         <f ca="1">AH82</f>
-        <v>0.35997144283561378</v>
+        <v>0.37675097453468742</v>
       </c>
       <c r="AO6" s="37">
         <f t="shared" ref="AO6:AR6" ca="1" si="57">AI82</f>
-        <v>0.48970964264570488</v>
+        <v>0.48192076769793207</v>
       </c>
       <c r="AP6" s="37">
         <f t="shared" ca="1" si="57"/>
-        <v>0.61770564765087244</v>
+        <v>0.61268143832616628</v>
       </c>
       <c r="AQ6" s="37">
         <f t="shared" ca="1" si="57"/>
-        <v>0.72104127104560134</v>
+        <v>0.73363352311275221</v>
       </c>
       <c r="AR6" s="39">
         <f t="shared" ca="1" si="57"/>
-        <v>0.86039134527730476</v>
+        <v>0.86925400325859636</v>
       </c>
     </row>
     <row r="7" spans="2:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1795,47 +1795,47 @@
       </c>
       <c r="AF7" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>-1.3549387918351343E-3</v>
+        <v>3.86294302965021E-3</v>
       </c>
       <c r="AH7" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.27059230006298529</v>
+        <v>0.26510374742010429</v>
       </c>
       <c r="AI7" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.38785546710835311</v>
+        <v>0.39504026174029788</v>
       </c>
       <c r="AJ7" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.51456252869652597</v>
+        <v>0.51788873837525173</v>
       </c>
       <c r="AK7" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.64172321282885458</v>
+        <v>0.64037885204264289</v>
       </c>
       <c r="AL7" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.76796551359115928</v>
+        <v>0.76344515226912091</v>
       </c>
       <c r="AN7" s="40">
         <f ca="1">AH102</f>
-        <v>0.35195705830231522</v>
+        <v>0.36012944039290368</v>
       </c>
       <c r="AO7" s="41">
         <f t="shared" ref="AO7:AR7" ca="1" si="58">AI102</f>
-        <v>0.48322264121231195</v>
+        <v>0.49080451229156385</v>
       </c>
       <c r="AP7" s="41">
         <f t="shared" ca="1" si="58"/>
-        <v>0.60796777593544238</v>
+        <v>0.59839995287220871</v>
       </c>
       <c r="AQ7" s="41">
         <f t="shared" ca="1" si="58"/>
-        <v>0.72554701719969783</v>
+        <v>0.7361616070095709</v>
       </c>
       <c r="AR7" s="42">
         <f t="shared" ca="1" si="58"/>
-        <v>0.86036925694378963</v>
+        <v>0.85649379342343668</v>
       </c>
     </row>
     <row r="8" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1955,27 +1955,27 @@
       </c>
       <c r="AF8" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>2.5361644475977276E-3</v>
+        <v>-1.3327125722741337E-3</v>
       </c>
       <c r="AH8" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.27359757966838794</v>
+        <v>0.26846658018196107</v>
       </c>
       <c r="AI8" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.39367216984762105</v>
+        <v>0.40305178280840598</v>
       </c>
       <c r="AJ8" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.5177856009906675</v>
+        <v>0.52404029523608453</v>
       </c>
       <c r="AK8" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.64646901820122038</v>
+        <v>0.64653284854522275</v>
       </c>
       <c r="AL8" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.77122563241738218</v>
+        <v>0.76736106320001718</v>
       </c>
     </row>
     <row r="9" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2095,27 +2095,27 @@
       </c>
       <c r="AF9" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>-8.5180298587836227E-4</v>
+        <v>-1.515121592028947E-3</v>
       </c>
       <c r="AH9" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.27990978838450414</v>
+        <v>0.27544799671672338</v>
       </c>
       <c r="AI9" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.39919127756034206</v>
+        <v>0.40939333109742987</v>
       </c>
       <c r="AJ9" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.52304173596470127</v>
+        <v>0.53284790696131001</v>
       </c>
       <c r="AK9" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.65479512040036114</v>
+        <v>0.65454043547964502</v>
       </c>
       <c r="AL9" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.778973426284992</v>
+        <v>0.77734406673524881</v>
       </c>
     </row>
     <row r="10" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2236,27 +2236,27 @@
       </c>
       <c r="AF10" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>2.4658324400812313E-3</v>
+        <v>-3.2379563492624013E-3</v>
       </c>
       <c r="AH10" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.28242230724826783</v>
+        <v>0.27812211839677997</v>
       </c>
       <c r="AI10" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.40354682000248532</v>
+        <v>0.4143867033391323</v>
       </c>
       <c r="AJ10" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.5257664802823433</v>
+        <v>0.53559436982446362</v>
       </c>
       <c r="AK10" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.65737850540167431</v>
+        <v>0.65901445047905183</v>
       </c>
       <c r="AL10" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.78144949113097817</v>
+        <v>0.78013579690191703</v>
       </c>
     </row>
     <row r="11" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2377,27 +2377,27 @@
       </c>
       <c r="AF11" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>1.0496826863261649E-3</v>
+        <v>6.4319311933397827E-4</v>
       </c>
       <c r="AH11" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.28749903514714853</v>
+        <v>0.28333010096609451</v>
       </c>
       <c r="AI11" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.40864315291422237</v>
+        <v>0.4189380691101961</v>
       </c>
       <c r="AJ11" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.52761451254075076</v>
+        <v>0.54059467725935451</v>
       </c>
       <c r="AK11" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.66009547395151802</v>
+        <v>0.66199567411202287</v>
       </c>
       <c r="AL11" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.78633791167715128</v>
+        <v>0.78434464562829564</v>
       </c>
     </row>
     <row r="12" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2517,27 +2517,27 @@
       </c>
       <c r="AF12" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>1.4079550926465534E-3</v>
+        <v>-1.2647484232264504E-3</v>
       </c>
       <c r="AH12" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.29074033490733026</v>
+        <v>0.28767841705918007</v>
       </c>
       <c r="AI12" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.41273327806107374</v>
+        <v>0.42138618368547776</v>
       </c>
       <c r="AJ12" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.53371209839475753</v>
+        <v>0.54446520148668676</v>
       </c>
       <c r="AK12" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.66596020364615505</v>
+        <v>0.66525554498994766</v>
       </c>
       <c r="AL12" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.78907103584790184</v>
+        <v>0.78820888847868631</v>
       </c>
     </row>
     <row r="13" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2657,27 +2657,27 @@
       </c>
       <c r="AF13" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>-1.1853225024467753E-3</v>
+        <v>2.6032168797778281E-4</v>
       </c>
       <c r="AH13" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.29074033490733026</v>
+        <v>0.28767841705918007</v>
       </c>
       <c r="AI13" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.41273327806107374</v>
+        <v>0.42138618368547776</v>
       </c>
       <c r="AJ13" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.53371209839475753</v>
+        <v>0.54446520148668676</v>
       </c>
       <c r="AK13" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.66596020364615505</v>
+        <v>0.66525554498994766</v>
       </c>
       <c r="AL13" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.78907103584790184</v>
+        <v>0.78820888847868631</v>
       </c>
     </row>
     <row r="14" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2801,23 +2801,23 @@
       </c>
       <c r="AH14" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.30526688921596246</v>
+        <v>0.29406477554102717</v>
       </c>
       <c r="AI14" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.4189069427517107</v>
+        <v>0.43465453464194476</v>
       </c>
       <c r="AJ14" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.54401174276879594</v>
+        <v>0.550485909465526</v>
       </c>
       <c r="AK14" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.67715802495783228</v>
+        <v>0.67905451214590917</v>
       </c>
       <c r="AL14" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.79980307413550422</v>
+        <v>0.80001513188127005</v>
       </c>
     </row>
     <row r="15" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2937,27 +2937,27 @@
       </c>
       <c r="AF15" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>-8.1397349863942051E-4</v>
+        <v>9.9807166395388027E-4</v>
       </c>
       <c r="AH15" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.30737214010856201</v>
+        <v>0.29822241951711881</v>
       </c>
       <c r="AI15" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.42504379327091785</v>
+        <v>0.4399554611486915</v>
       </c>
       <c r="AJ15" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.54709316157635168</v>
+        <v>0.55342840440740715</v>
       </c>
       <c r="AK15" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.6829823376900096</v>
+        <v>0.68413390183109291</v>
       </c>
       <c r="AL15" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.80600346196987527</v>
+        <v>0.80539409884208302</v>
       </c>
     </row>
     <row r="16" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3077,27 +3077,27 @@
       </c>
       <c r="AF16" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>7.1673971727911684E-4</v>
+        <v>-1.9783548309548413E-3</v>
       </c>
       <c r="AH16" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.3109442765258148</v>
+        <v>0.30023591074529277</v>
       </c>
       <c r="AI16" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.42971388843859698</v>
+        <v>0.4429796352444953</v>
       </c>
       <c r="AJ16" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.54892006117583692</v>
+        <v>0.55703469681920448</v>
       </c>
       <c r="AK16" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.68708278007570289</v>
+        <v>0.68690557851422562</v>
       </c>
       <c r="AL16" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.80811447299524453</v>
+        <v>0.81060059322316924</v>
       </c>
     </row>
     <row r="17" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3217,27 +3217,27 @@
       </c>
       <c r="AF17" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>7.3967399475323523E-4</v>
+        <v>1.3774431229549408E-3</v>
       </c>
       <c r="AH17" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.31799936925852679</v>
+        <v>0.30417265546338851</v>
       </c>
       <c r="AI17" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.43536948726888858</v>
+        <v>0.45107162541871232</v>
       </c>
       <c r="AJ17" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.55387176813466987</v>
+        <v>0.56535933982749065</v>
       </c>
       <c r="AK17" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.69291417923669019</v>
+        <v>0.69194027236651456</v>
       </c>
       <c r="AL17" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.81255053265663724</v>
+        <v>0.81882927771454084</v>
       </c>
     </row>
     <row r="18" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3357,27 +3357,27 @@
       </c>
       <c r="AF18" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>-2.2421293543627612E-3</v>
+        <v>1.0591562399623385E-3</v>
       </c>
       <c r="AH18" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.32380201859204444</v>
+        <v>0.31403582272306413</v>
       </c>
       <c r="AI18" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.4431759025611034</v>
+        <v>0.45727536150294862</v>
       </c>
       <c r="AJ18" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.55891647283412282</v>
+        <v>0.56946113656357344</v>
       </c>
       <c r="AK18" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.70197921243112149</v>
+        <v>0.69643159219124728</v>
       </c>
       <c r="AL18" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.82003984146797548</v>
+        <v>0.82403939344519095</v>
       </c>
     </row>
     <row r="19" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3497,27 +3497,27 @@
       </c>
       <c r="AF19" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>-6.8034538359811395E-5</v>
+        <v>2.6518556834256423E-4</v>
       </c>
       <c r="AH19" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.32836862264873617</v>
+        <v>0.32123889370053815</v>
       </c>
       <c r="AI19" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.44998459412864972</v>
+        <v>0.46170142677386261</v>
       </c>
       <c r="AJ19" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.56812352499061836</v>
+        <v>0.57546062860664937</v>
       </c>
       <c r="AK19" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.70833912003533983</v>
+        <v>0.70546478875928931</v>
       </c>
       <c r="AL19" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.82400555863422298</v>
+        <v>0.834252303059411</v>
       </c>
     </row>
     <row r="20" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3637,27 +3637,27 @@
       </c>
       <c r="AF20" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>-1.2611211056082201E-3</v>
+        <v>4.2377559567422472E-5</v>
       </c>
       <c r="AH20" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.3323060036421015</v>
+        <v>0.32765278100215978</v>
       </c>
       <c r="AI20" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.45728165459770537</v>
+        <v>0.46560892236944984</v>
       </c>
       <c r="AJ20" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.57306751061068373</v>
+        <v>0.57984449403067495</v>
       </c>
       <c r="AK20" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.71262281841318709</v>
+        <v>0.71177721315601816</v>
       </c>
       <c r="AL20" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.8275605920004242</v>
+        <v>0.842147928286199</v>
       </c>
     </row>
     <row r="21" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3777,27 +3777,27 @@
       </c>
       <c r="AF21" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>-1.4821954919445228E-3</v>
+        <v>1.5210088171809756E-3</v>
       </c>
       <c r="AH21" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>0.33625137822035422</v>
+        <v>0.33666078715847442</v>
       </c>
       <c r="AI21" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>0.46058727055918408</v>
+        <v>0.47076818222335937</v>
       </c>
       <c r="AJ21" s="7">
         <f t="shared" ca="1" si="24"/>
-        <v>0.57928844802062363</v>
+        <v>0.58733248317728948</v>
       </c>
       <c r="AK21" s="7">
         <f t="shared" ca="1" si="25"/>
-        <v>0.71575085343580302</v>
+        <v>0.71663176648301763</v>
       </c>
       <c r="AL21" s="7">
         <f t="shared" ca="1" si="26"/>
-        <v>0.83148873415771585</v>
+        <v>0.84550846839037219</v>
       </c>
     </row>
     <row r="22" spans="3:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3917,27 +3917,27 @@
       </c>
       <c r="AF22" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>1.0281369058431885E-3</v>
+        <v>1.7353756254145725E-3</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>0.33973388123673054</v>
+        <v>0.34170778490637538</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>0.46910150407489859</v>
+        <v>0.48006674261299431</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" ca="1" si="24"/>
-        <v>0.58933385436672148</v>
+        <v>0.5966705586677592</v>
       </c>
       <c r="AK22" s="8">
         <f t="shared" ca="1" si="25"/>
-        <v>0.72498089004080279</v>
+        <v>0.72151742643687422</v>
       </c>
       <c r="AL22" s="8">
         <f t="shared" ca="1" si="26"/>
-        <v>0.83951137263646769</v>
+        <v>0.85159196147288452</v>
       </c>
     </row>
     <row r="23" spans="3:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="AF23" s="23">
         <f t="shared" ca="1" si="54"/>
-        <v>-1.1162156960743798E-3</v>
+        <v>-1.9454118349180748E-3</v>
       </c>
       <c r="AH23" s="6">
         <f>AH3+$B$4</f>
@@ -4089,23 +4089,23 @@
       <c r="AD24" s="21"/>
       <c r="AH24" s="28">
         <f t="shared" ref="AH24:AH42" ca="1" si="59">(AH23+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.25761560963142832</v>
+        <v>0.25681382888846982</v>
       </c>
       <c r="AI24" s="28">
         <f t="shared" ref="AI24:AI42" ca="1" si="60">(AI23+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.38156578421546677</v>
+        <v>0.38212768327437885</v>
       </c>
       <c r="AJ24" s="28">
         <f t="shared" ref="AJ24:AJ42" ca="1" si="61">(AJ23+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.50591850547772887</v>
+        <v>0.50648240306757442</v>
       </c>
       <c r="AK24" s="28">
         <f t="shared" ref="AK24:AK42" ca="1" si="62">(AK23+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.63105485982350629</v>
+        <v>0.63169123983210684</v>
       </c>
       <c r="AL24" s="28">
         <f t="shared" ref="AL24:AL42" ca="1" si="63">(AL23+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.75606636337137134</v>
+        <v>0.75541698547409764</v>
       </c>
     </row>
     <row r="25" spans="3:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4149,23 +4149,23 @@
       <c r="AD25" s="21"/>
       <c r="AH25" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.25875925607636857</v>
+        <v>0.2578367166408182</v>
       </c>
       <c r="AI25" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.38316380593946325</v>
+        <v>0.38348299518582801</v>
       </c>
       <c r="AJ25" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.50753113711933406</v>
+        <v>0.50727307272390321</v>
       </c>
       <c r="AK25" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.63295831611454345</v>
+        <v>0.63331715988518467</v>
       </c>
       <c r="AL25" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.75787281854527222</v>
+        <v>0.7565311597151948</v>
       </c>
     </row>
     <row r="26" spans="3:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4249,23 +4249,23 @@
       <c r="AD26" s="21"/>
       <c r="AH26" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.27001267593862233</v>
+        <v>0.2625917663728643</v>
       </c>
       <c r="AI26" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.39068017241684883</v>
+        <v>0.39378577236896362</v>
       </c>
       <c r="AJ26" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.51593825005565164</v>
+        <v>0.51769722662617501</v>
       </c>
       <c r="AK26" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.63822138992224209</v>
+        <v>0.64487617542207787</v>
       </c>
       <c r="AL26" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.76224592112243139</v>
+        <v>0.7670653819835862</v>
       </c>
     </row>
     <row r="27" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4373,2000 +4373,2000 @@
       <c r="AD27" s="21"/>
       <c r="AH27" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.27525216681171344</v>
+        <v>0.26606817629113305</v>
       </c>
       <c r="AI27" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.39851644461843055</v>
+        <v>0.3997826690872166</v>
       </c>
       <c r="AJ27" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.52232414972106622</v>
+        <v>0.52113913010219237</v>
       </c>
       <c r="AK27" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.6441376002004896</v>
+        <v>0.65174677501231959</v>
       </c>
       <c r="AL27" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.76899706308281568</v>
+        <v>0.77128256381311411</v>
       </c>
     </row>
     <row r="28" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="7">
         <f t="shared" ref="C28:C46" ca="1" si="85">(C27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.25330065947734426</v>
+        <v>0.25407716267107672</v>
       </c>
       <c r="D28" s="28">
         <f t="shared" ref="D28:D46" ca="1" si="86">(D27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.25549086832018481</v>
+        <v>0.25529757782043921</v>
       </c>
       <c r="E28" s="28">
         <f t="shared" ref="E28:E46" ca="1" si="87">(E27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.26043725023787695</v>
+        <v>0.25882606482622422</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" ref="F28:F46" ca="1" si="88">(F27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.26284254325941703</v>
+        <v>0.26280449822226987</v>
       </c>
       <c r="G28" s="30">
         <f t="shared" ref="G28:G46" ca="1" si="89">(G27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.26696478331573809</v>
+        <v>0.26721828167976197</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" ref="H28:H46" ca="1" si="90">(H27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.37766941371176893</v>
+        <v>0.37648535719201703</v>
       </c>
       <c r="I28" s="28">
         <f t="shared" ref="I28:I46" ca="1" si="91">(I27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.38208782952260639</v>
+        <v>0.38181074389777381</v>
       </c>
       <c r="J28" s="28">
         <f t="shared" ref="J28:J46" ca="1" si="92">(J27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.38468861905613344</v>
+        <v>0.38481432293857853</v>
       </c>
       <c r="K28" s="28">
         <f t="shared" ref="K28:K46" ca="1" si="93">(K27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.38862237302873887</v>
+        <v>0.38683190083151997</v>
       </c>
       <c r="L28" s="34">
         <f t="shared" ref="L28:L46" ca="1" si="94">(L27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.39098175061720231</v>
+        <v>0.3922795724772265</v>
       </c>
       <c r="M28" s="7">
         <f t="shared" ref="M28:M46" ca="1" si="95">(M27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.50316579956765917</v>
+        <v>0.50377757205637108</v>
       </c>
       <c r="N28" s="28">
         <f t="shared" ref="N28:N46" ca="1" si="96">(N27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.50571297781951607</v>
+        <v>0.50704538083917294</v>
       </c>
       <c r="O28" s="28">
         <f t="shared" ref="O28:O46" ca="1" si="97">(O27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.5106677015511758</v>
+        <v>0.50930862928587661</v>
       </c>
       <c r="P28" s="28">
         <f t="shared" ref="P28:P46" ca="1" si="98">(P27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.51233491480632543</v>
+        <v>0.51271358881928264</v>
       </c>
       <c r="Q28" s="30">
         <f t="shared" ref="Q28:Q46" ca="1" si="99">(Q27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.51647833470337146</v>
+        <v>0.51785068554168701</v>
       </c>
       <c r="R28" s="7">
         <f t="shared" ref="R28:R46" ca="1" si="100">(R27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.62761586375084921</v>
+        <v>0.62719200105159345</v>
       </c>
       <c r="S28" s="28">
         <f t="shared" ref="S28:S46" ca="1" si="101">(S27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.63242284133343507</v>
+        <v>0.63093435847757851</v>
       </c>
       <c r="T28" s="28">
         <f t="shared" ref="T28:T46" ca="1" si="102">(T27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.63356053186686412</v>
+        <v>0.63359858902295674</v>
       </c>
       <c r="U28" s="28">
         <f t="shared" ref="U28:U46" ca="1" si="103">(U27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.63845640304421791</v>
+        <v>0.63821625980802266</v>
       </c>
       <c r="V28" s="30">
         <f t="shared" ref="V28:V46" ca="1" si="104">(V27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.64144970481367369</v>
+        <v>0.64119254380814694</v>
       </c>
       <c r="W28" s="7">
         <f t="shared" ref="W28:W46" ca="1" si="105">(W27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.75242438802845846</v>
+        <v>0.75290288493287427</v>
       </c>
       <c r="X28" s="28">
         <f t="shared" ref="X28:X46" ca="1" si="106">(X27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.75577102992481759</v>
+        <v>0.75587603566063111</v>
       </c>
       <c r="Y28" s="28">
         <f t="shared" ref="Y28:Y46" ca="1" si="107">(Y27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.75916451623047876</v>
+        <v>0.76100204393392179</v>
       </c>
       <c r="Z28" s="28">
         <f t="shared" ref="Z28:Z46" ca="1" si="108">(Z27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.76331720911495693</v>
+        <v>0.76407608255102233</v>
       </c>
       <c r="AA28" s="30">
         <f t="shared" ref="AA28:AA46" ca="1" si="109">(AA27+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.76689362071128897</v>
+        <v>0.76608443907201507</v>
       </c>
       <c r="AB28" s="21"/>
       <c r="AC28" s="21"/>
       <c r="AD28" s="21"/>
       <c r="AH28" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.27892746768205234</v>
+        <v>0.26994720719329879</v>
       </c>
       <c r="AI28" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.40129672932568056</v>
+        <v>0.40759996747003241</v>
       </c>
       <c r="AJ28" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.52768206775332083</v>
+        <v>0.5253517042534438</v>
       </c>
       <c r="AK28" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.65237678690049383</v>
+        <v>0.65566856783821592</v>
       </c>
       <c r="AL28" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.77287875253275118</v>
+        <v>0.77483240089502392</v>
       </c>
     </row>
     <row r="29" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.25506130900121432</v>
+        <v>0.25526995439516786</v>
       </c>
       <c r="D29" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.25695190584564542</v>
+        <v>0.2566231352479782</v>
       </c>
       <c r="E29" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.26229002211641134</v>
+        <v>0.2602140448632263</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.26443897865579513</v>
+        <v>0.26408256691105458</v>
       </c>
       <c r="G29" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.26852848776071864</v>
+        <v>0.26877912242485413</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.37928783612757327</v>
+        <v>0.37851393697851532</v>
       </c>
       <c r="I29" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.38346438970520702</v>
+        <v>0.38346724790319531</v>
       </c>
       <c r="J29" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.38546421559431499</v>
+        <v>0.38611164551823207</v>
       </c>
       <c r="K29" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.38949967337455971</v>
+        <v>0.38856203234442205</v>
       </c>
       <c r="L29" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.39288160634450681</v>
+        <v>0.39327044018489565</v>
       </c>
       <c r="M29" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.50486244521193901</v>
+        <v>0.50519849912538717</v>
       </c>
       <c r="N29" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.50661452300988696</v>
+        <v>0.50901617703153756</v>
       </c>
       <c r="O29" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.51259750968957762</v>
+        <v>0.51016945528853774</v>
       </c>
       <c r="P29" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.51388586819936066</v>
+        <v>0.51387734207231228</v>
       </c>
       <c r="Q29" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.51798003715052798</v>
+        <v>0.51870306085407369</v>
       </c>
       <c r="R29" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.62898380610941806</v>
+        <v>0.62853700116697497</v>
       </c>
       <c r="S29" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.63371493091689823</v>
+        <v>0.63196507467484886</v>
       </c>
       <c r="T29" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.63542295763707135</v>
+        <v>0.63547516299697082</v>
       </c>
       <c r="U29" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.63930032456779873</v>
+        <v>0.63905172818920075</v>
       </c>
       <c r="V29" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.64263287880348108</v>
+        <v>0.64195996822925061</v>
       </c>
       <c r="W29" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.7532758182777185</v>
+        <v>0.75399375636153698</v>
       </c>
       <c r="X29" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.75669394410720514</v>
+        <v>0.75686424729667678</v>
       </c>
       <c r="Y29" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.76113762370866611</v>
+        <v>0.76220586859935568</v>
       </c>
       <c r="Z29" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.76436203212534626</v>
+        <v>0.76545265506347915</v>
       </c>
       <c r="AA29" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.76862367515510133</v>
+        <v>0.76748535418293529</v>
       </c>
       <c r="AB29" s="21"/>
       <c r="AC29" s="21"/>
       <c r="AD29" s="21"/>
       <c r="AH29" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.28254059154615568</v>
+        <v>0.27780496986932374</v>
       </c>
       <c r="AI29" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.40832689290809876</v>
+        <v>0.41365240183577451</v>
       </c>
       <c r="AJ29" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.53380014859659397</v>
+        <v>0.53136764959181348</v>
       </c>
       <c r="AK29" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.66271721434857889</v>
+        <v>0.66036050956053649</v>
       </c>
       <c r="AL29" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.78134910224708753</v>
+        <v>0.78431574028552531</v>
       </c>
     </row>
     <row r="30" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.26689985643061137</v>
+        <v>0.26481219294736563</v>
       </c>
       <c r="D30" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.26156289578148234</v>
+        <v>0.2672602119742219</v>
       </c>
       <c r="E30" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.2673268550097877</v>
+        <v>0.26499727767775222</v>
       </c>
       <c r="F30" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.2766662067569069</v>
+        <v>0.2688121358832351</v>
       </c>
       <c r="G30" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.27415226154652422</v>
+        <v>0.27645184068292988</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.38821863416468128</v>
+        <v>0.38322418063120062</v>
       </c>
       <c r="I30" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.38921127680336987</v>
+        <v>0.39059761840419754</v>
       </c>
       <c r="J30" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.39649776100161693</v>
+        <v>0.3983481001061116</v>
       </c>
       <c r="K30" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.39641259566372572</v>
+        <v>0.3932523451026736</v>
       </c>
       <c r="L30" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.40117843359122979</v>
+        <v>0.39962038198236954</v>
       </c>
       <c r="M30" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.51721292858780143</v>
+        <v>0.51125692554584468</v>
       </c>
       <c r="N30" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.51228777888948629</v>
+        <v>0.52116527932059509</v>
       </c>
       <c r="O30" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.51913601883575511</v>
+        <v>0.52125428696763432</v>
       </c>
       <c r="P30" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.52140575496440567</v>
+        <v>0.51915093461933792</v>
       </c>
       <c r="Q30" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.52605842938043601</v>
+        <v>0.53099543521453996</v>
       </c>
       <c r="R30" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.63893523403004937</v>
+        <v>0.63933059633192779</v>
       </c>
       <c r="S30" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.63825114695821827</v>
+        <v>0.63631440348821855</v>
       </c>
       <c r="T30" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.64608877355451877</v>
+        <v>0.64618470471043776</v>
       </c>
       <c r="U30" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.64596481869368061</v>
+        <v>0.64641196641927823</v>
       </c>
       <c r="V30" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.64947341877603559</v>
+        <v>0.64808318039166157</v>
       </c>
       <c r="W30" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.75815732596457586</v>
+        <v>0.76200968291433213</v>
       </c>
       <c r="X30" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.76246837206073903</v>
+        <v>0.76409280332597573</v>
       </c>
       <c r="Y30" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.76768694705577223</v>
+        <v>0.77241147304476487</v>
       </c>
       <c r="Z30" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.77140433364066296</v>
+        <v>0.77026157034404485</v>
       </c>
       <c r="AA30" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.77598067337857002</v>
+        <v>0.77479064632309669</v>
       </c>
       <c r="AB30" s="21"/>
       <c r="AC30" s="21"/>
       <c r="AD30" s="21"/>
       <c r="AH30" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.28680170587537851</v>
+        <v>0.28061808864582122</v>
       </c>
       <c r="AI30" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.41105506872729097</v>
+        <v>0.41749142180155491</v>
       </c>
       <c r="AJ30" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.53847559484002983</v>
+        <v>0.53316359464224816</v>
       </c>
       <c r="AK30" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.66452493538459645</v>
+        <v>0.66498423572654342</v>
       </c>
       <c r="AL30" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.78652402202219673</v>
+        <v>0.78819342206788678</v>
       </c>
     </row>
     <row r="31" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.27163394246738759</v>
+        <v>0.27242941622357991</v>
       </c>
       <c r="D31" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.26602252302880453</v>
+        <v>0.27340486147716653</v>
       </c>
       <c r="E31" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.27362988138219357</v>
+        <v>0.27277842909865913</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.28182782537716516</v>
+        <v>0.27607990767784013</v>
       </c>
       <c r="G31" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.28184176428633056</v>
+        <v>0.2838935923301924</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.39383535429438693</v>
+        <v>0.39017519251814786</v>
       </c>
       <c r="I31" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.39455858111771874</v>
+        <v>0.39665172591044262</v>
       </c>
       <c r="J31" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.40235584941895874</v>
+        <v>0.40292637975843848</v>
       </c>
       <c r="K31" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.40011760758327097</v>
+        <v>0.40006315484253413</v>
       </c>
       <c r="L31" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.4054154185571473</v>
+        <v>0.40737653102694288</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.52544297582926058</v>
+        <v>0.51818101309184239</v>
       </c>
       <c r="N31" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.52029853812826299</v>
+        <v>0.52533846090674885</v>
       </c>
       <c r="O31" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.52651581951532833</v>
+        <v>0.52629190066639575</v>
       </c>
       <c r="P31" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.52871714932533609</v>
+        <v>0.5242325702645394</v>
       </c>
       <c r="Q31" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.52992677226053986</v>
+        <v>0.53442313433988309</v>
       </c>
       <c r="R31" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.64303630439650417</v>
+        <v>0.64761296138286795</v>
       </c>
       <c r="S31" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.64285568238018043</v>
+        <v>0.64345327304181965</v>
       </c>
       <c r="T31" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.65007175156717334</v>
+        <v>0.64918495855802738</v>
       </c>
       <c r="U31" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.65378268780872828</v>
+        <v>0.65103754624190779</v>
       </c>
       <c r="V31" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.65465106487750868</v>
+        <v>0.6508839049753421</v>
       </c>
       <c r="W31" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.76602976807105361</v>
+        <v>0.76924408865621929</v>
       </c>
       <c r="X31" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.76664862608117856</v>
+        <v>0.77037444720435</v>
       </c>
       <c r="Y31" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.77228131800926914</v>
+        <v>0.77777128950845464</v>
       </c>
       <c r="Z31" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.77619645607644583</v>
+        <v>0.77334225530323331</v>
       </c>
       <c r="AA31" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.78146078256649421</v>
+        <v>0.78090043571835022</v>
       </c>
       <c r="AB31" s="21"/>
       <c r="AC31" s="21"/>
       <c r="AD31" s="21"/>
       <c r="AH31" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.28874430757468489</v>
+        <v>0.28568842949165413</v>
       </c>
       <c r="AI31" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.41480133816045528</v>
+        <v>0.42153862673752768</v>
       </c>
       <c r="AJ31" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.54252561418088086</v>
+        <v>0.53531369780676297</v>
       </c>
       <c r="AK31" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.66910247567316061</v>
+        <v>0.6698911092750196</v>
       </c>
       <c r="AL31" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.79137017810894439</v>
+        <v>0.79160685154328114</v>
       </c>
     </row>
     <row r="32" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.27637207874751796</v>
+        <v>0.27926997508591567</v>
       </c>
       <c r="D32" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.2707897378458522</v>
+        <v>0.28158924516886535</v>
       </c>
       <c r="E32" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.27705878580883819</v>
+        <v>0.27732278965350571</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.28463796086753101</v>
+        <v>0.28316197749773248</v>
       </c>
       <c r="G32" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.28463194061936614</v>
+        <v>0.29123085581184027</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.39807934100650455</v>
+        <v>0.39302807603231144</v>
       </c>
       <c r="I32" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.39987122117023027</v>
+        <v>0.39958116214981532</v>
       </c>
       <c r="J32" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.40573229887384799</v>
+        <v>0.40927431706154604</v>
       </c>
       <c r="K32" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.40504274713502436</v>
+        <v>0.40315755107320028</v>
       </c>
       <c r="L32" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.41051966841372828</v>
+        <v>0.41086299204053067</v>
       </c>
       <c r="M32" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.53093523984971003</v>
+        <v>0.52533363045552628</v>
       </c>
       <c r="N32" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.52325276165051204</v>
+        <v>0.53257274413741285</v>
       </c>
       <c r="O32" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.53288078931989191</v>
+        <v>0.53144435956265534</v>
       </c>
       <c r="P32" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.53390739563098455</v>
+        <v>0.52747096475535604</v>
       </c>
       <c r="Q32" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.53444613917447892</v>
+        <v>0.53850616982332378</v>
       </c>
       <c r="R32" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.65076862895398357</v>
+        <v>0.6556487046829057</v>
       </c>
       <c r="S32" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.6503280735546898</v>
+        <v>0.64701522865874117</v>
       </c>
       <c r="T32" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.65717085224253413</v>
+        <v>0.65554396090944522</v>
       </c>
       <c r="U32" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.65687077228875623</v>
+        <v>0.65669977550394687</v>
       </c>
       <c r="V32" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.66019248834951372</v>
+        <v>0.6562981044590469</v>
       </c>
       <c r="W32" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.76935896715537411</v>
+        <v>0.7763579057003388</v>
       </c>
       <c r="X32" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.77461091517815783</v>
+        <v>0.77398492798551999</v>
       </c>
       <c r="Y32" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.7783745343626689</v>
+        <v>0.78514756375780026</v>
       </c>
       <c r="Z32" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.78442088699706103</v>
+        <v>0.77631962829603185</v>
       </c>
       <c r="AA32" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.78903725373490385</v>
+        <v>0.7863903636597912</v>
       </c>
       <c r="AB32" s="21"/>
       <c r="AC32" s="21"/>
       <c r="AD32" s="21"/>
       <c r="AH32" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.29498794601328737</v>
+        <v>0.29175860203876192</v>
       </c>
       <c r="AI32" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.41875528480780155</v>
+        <v>0.42488251587827963</v>
       </c>
       <c r="AJ32" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.54597022525666905</v>
+        <v>0.54011720828111442</v>
       </c>
       <c r="AK32" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.67424636575371288</v>
+        <v>0.67380031481227765</v>
       </c>
       <c r="AL32" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.79484120282443937</v>
+        <v>0.79391444866517158</v>
       </c>
     </row>
     <row r="33" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.28427609024569972</v>
+        <v>0.28611222642639056</v>
       </c>
       <c r="D33" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.27702921166395955</v>
+        <v>0.28876981954527203</v>
       </c>
       <c r="E33" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.28473772634580258</v>
+        <v>0.28578045113030004</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.29355093369367413</v>
+        <v>0.28795656381582568</v>
       </c>
       <c r="G33" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.29437382716709076</v>
+        <v>0.30064226904919089</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.40825520556353867</v>
+        <v>0.40022392066906487</v>
       </c>
       <c r="I33" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.40746402978046437</v>
+        <v>0.40736023942648197</v>
       </c>
       <c r="J33" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.41228145109254555</v>
+        <v>0.41740231176887455</v>
       </c>
       <c r="K33" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.41213852979647342</v>
+        <v>0.41263451414906893</v>
       </c>
       <c r="L33" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.41510387129673826</v>
+        <v>0.41793491387735338</v>
       </c>
       <c r="M33" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.53941376526701357</v>
+        <v>0.52999200297275251</v>
       </c>
       <c r="N33" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.53034321449633792</v>
+        <v>0.53770675574928484</v>
       </c>
       <c r="O33" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.54106483272751693</v>
+        <v>0.53766387433741236</v>
       </c>
       <c r="P33" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.54048031120252804</v>
+        <v>0.53688272816504079</v>
       </c>
       <c r="Q33" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.54098090308050273</v>
+        <v>0.54347409329824425</v>
       </c>
       <c r="R33" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.65492185161563665</v>
+        <v>0.66410425198751821</v>
       </c>
       <c r="S33" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.65988705091579591</v>
+        <v>0.65131611725318073</v>
       </c>
       <c r="T33" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.665859963073966</v>
+        <v>0.66388508109655597</v>
       </c>
       <c r="U33" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.66715152873207184</v>
+        <v>0.6627984672160474</v>
       </c>
       <c r="V33" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.66764296800568579</v>
+        <v>0.6612586010751812</v>
       </c>
       <c r="W33" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.77396511110687705</v>
+        <v>0.78256372115563333</v>
       </c>
       <c r="X33" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.78474953639796052</v>
+        <v>0.78108479173236145</v>
       </c>
       <c r="Y33" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.78539546655143788</v>
+        <v>0.78968490118239709</v>
       </c>
       <c r="Z33" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.79425256407875044</v>
+        <v>0.78542902396380676</v>
       </c>
       <c r="AA33" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.79721327133382558</v>
+        <v>0.79578650764029824</v>
       </c>
       <c r="AB33" s="21"/>
       <c r="AC33" s="21"/>
       <c r="AD33" s="21"/>
       <c r="AH33" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.29498794601328737</v>
+        <v>0.29175860203876192</v>
       </c>
       <c r="AI33" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.41875528480780155</v>
+        <v>0.42488251587827963</v>
       </c>
       <c r="AJ33" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.54597022525666905</v>
+        <v>0.54011720828111442</v>
       </c>
       <c r="AK33" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.67424636575371288</v>
+        <v>0.67380031481227765</v>
       </c>
       <c r="AL33" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.79484120282443937</v>
+        <v>0.79391444866517158</v>
       </c>
     </row>
     <row r="34" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.28697140759464929</v>
+        <v>0.28992748951552721</v>
       </c>
       <c r="D34" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.27880100228550347</v>
+        <v>0.29103196338501724</v>
       </c>
       <c r="E34" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.28757714607410578</v>
+        <v>0.29074753821683341</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.29694740897984373</v>
+        <v>0.29139218478844414</v>
       </c>
       <c r="G34" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.29704359949086828</v>
+        <v>0.30281300432769914</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.41324143813246877</v>
+        <v>0.40277950558675746</v>
       </c>
       <c r="I34" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.41092580799843248</v>
+        <v>0.40919113473107716</v>
       </c>
       <c r="J34" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.4148166446318125</v>
+        <v>0.42029919229754237</v>
       </c>
       <c r="K34" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.41645724368433179</v>
+        <v>0.41611462231953911</v>
       </c>
       <c r="L34" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.41771651753884032</v>
+        <v>0.42045174554051656</v>
       </c>
       <c r="M34" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.54227199765350298</v>
+        <v>0.53348757946099257</v>
       </c>
       <c r="N34" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.53231382132081662</v>
+        <v>0.54244470863637273</v>
       </c>
       <c r="O34" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.54387677356384967</v>
+        <v>0.54232629885740613</v>
       </c>
       <c r="P34" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.54538418365014329</v>
+        <v>0.54173702372460053</v>
       </c>
       <c r="Q34" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.54450346368442026</v>
+        <v>0.54730507948947882</v>
       </c>
       <c r="R34" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.65678677464279633</v>
+        <v>0.66585223979404362</v>
       </c>
       <c r="S34" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.6637850317360261</v>
+        <v>0.6544837311746774</v>
       </c>
       <c r="T34" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.67064081877892801</v>
+        <v>0.6685814771739943</v>
       </c>
       <c r="U34" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.6707005697116214</v>
+        <v>0.66515057861514282</v>
       </c>
       <c r="V34" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.6695264715516166</v>
+        <v>0.66304328068943807</v>
       </c>
       <c r="W34" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.77873625825237458</v>
+        <v>0.78686558954577557</v>
       </c>
       <c r="X34" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.78847063274876517</v>
+        <v>0.78522904510450497</v>
       </c>
       <c r="Y34" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.78929401898405249</v>
+        <v>0.79443057379314985</v>
       </c>
       <c r="Z34" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.79610118737141877</v>
+        <v>0.78906956502403636</v>
       </c>
       <c r="AA34" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.80077143164489617</v>
+        <v>0.79779973114316372</v>
       </c>
       <c r="AB34" s="21"/>
       <c r="AC34" s="21"/>
       <c r="AD34" s="21"/>
       <c r="AH34" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.30091050552154386</v>
+        <v>0.29703619859678937</v>
       </c>
       <c r="AI34" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.43076366329443927</v>
+        <v>0.43489802999658705</v>
       </c>
       <c r="AJ34" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.55462441822599406</v>
+        <v>0.5482494389881013</v>
       </c>
       <c r="AK34" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.68962246520808879</v>
+        <v>0.68426538058560127</v>
       </c>
       <c r="AL34" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.80200637410539966</v>
+        <v>0.80881502135339256</v>
       </c>
     </row>
     <row r="35" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.28931631230331073</v>
+        <v>0.29220799492468069</v>
       </c>
       <c r="D35" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.28385553392754947</v>
+        <v>0.29547584609722333</v>
       </c>
       <c r="E35" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.29037904637590412</v>
+        <v>0.29396383841302415</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.30083611113996894</v>
+        <v>0.29452537373605286</v>
       </c>
       <c r="G35" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.29963762016533213</v>
+        <v>0.3048120484182999</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.41750440061688116</v>
+        <v>0.40624269981304556</v>
       </c>
       <c r="I35" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.41534835810738263</v>
+        <v>0.41435222063503446</v>
       </c>
       <c r="J35" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.41948824185589967</v>
+        <v>0.42336805260748051</v>
       </c>
       <c r="K35" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.42085945501217498</v>
+        <v>0.42111507162736078</v>
       </c>
       <c r="L35" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.42233789095466917</v>
+        <v>0.42476250918715797</v>
       </c>
       <c r="M35" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.54414655475649176</v>
+        <v>0.5379214282885193</v>
       </c>
       <c r="N35" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.53690523707672422</v>
+        <v>0.5461838015661632</v>
       </c>
       <c r="O35" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.54633898467330411</v>
+        <v>0.54566242105094886</v>
       </c>
       <c r="P35" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.5494131920934906</v>
+        <v>0.54657326749826185</v>
       </c>
       <c r="Q35" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.54793694499902335</v>
+        <v>0.55241753909429792</v>
       </c>
       <c r="R35" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.65953650192818014</v>
+        <v>0.66851163833967375</v>
       </c>
       <c r="S35" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.66790235759172367</v>
+        <v>0.65845191677103498</v>
       </c>
       <c r="T35" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.67295066698322148</v>
+        <v>0.67190608750562786</v>
       </c>
       <c r="U35" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.67265178059747688</v>
+        <v>0.66758001634905473</v>
       </c>
       <c r="V35" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.67350413639126538</v>
+        <v>0.66486946248827838</v>
       </c>
       <c r="W35" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.78388084043489414</v>
+        <v>0.79168312469445212</v>
       </c>
       <c r="X35" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.79260285419377818</v>
+        <v>0.78855967715887176</v>
       </c>
       <c r="Y35" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.79105593089206272</v>
+        <v>0.79653176383058932</v>
       </c>
       <c r="Z35" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.80042032807827612</v>
+        <v>0.79217895053825638</v>
       </c>
       <c r="AA35" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.80516560006981364</v>
+        <v>0.80010029050902187</v>
       </c>
       <c r="AB35" s="21"/>
       <c r="AC35" s="21"/>
       <c r="AD35" s="21"/>
       <c r="AH35" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.3039310429840083</v>
+        <v>0.2997153957006865</v>
       </c>
       <c r="AI35" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.43491681997549636</v>
+        <v>0.43781693567787766</v>
       </c>
       <c r="AJ35" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.55933026137397024</v>
+        <v>0.55159231418814936</v>
       </c>
       <c r="AK35" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.69183720482019284</v>
+        <v>0.68994641935469347</v>
       </c>
       <c r="AL35" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.80709052941818216</v>
+        <v>0.8118663460859421</v>
       </c>
     </row>
     <row r="36" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.29304549612571507</v>
+        <v>0.29540597823555692</v>
       </c>
       <c r="D36" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.2878054013480818</v>
+        <v>0.30133730711780488</v>
       </c>
       <c r="E36" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.2943550089249482</v>
+        <v>0.29876959398317593</v>
       </c>
       <c r="F36" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.30417703049393285</v>
+        <v>0.29946575801586839</v>
       </c>
       <c r="G36" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.3038083143655757</v>
+        <v>0.30997708549340086</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.42220326781270812</v>
+        <v>0.41143762387527205</v>
       </c>
       <c r="I36" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.41823958698552388</v>
+        <v>0.41958714124663454</v>
       </c>
       <c r="J36" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.42295478877346271</v>
+        <v>0.42619414244709242</v>
       </c>
       <c r="K36" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.42562572791346598</v>
+        <v>0.42653103475344711</v>
       </c>
       <c r="L36" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.42820672373881197</v>
+        <v>0.42937856804905095</v>
       </c>
       <c r="M36" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.54666284492683281</v>
+        <v>0.54036940960280866</v>
       </c>
       <c r="N36" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.53949805370374038</v>
+        <v>0.55167504834410019</v>
       </c>
       <c r="O36" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.55134425927733421</v>
+        <v>0.55190059562795835</v>
       </c>
       <c r="P36" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.55473572476508781</v>
+        <v>0.55011423021964223</v>
       </c>
       <c r="Q36" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.55291386801000664</v>
+        <v>0.5577374027539016</v>
       </c>
       <c r="R36" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.66404298047467014</v>
+        <v>0.6736974048953368</v>
       </c>
       <c r="S36" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.67169209629816362</v>
+        <v>0.66138991737261388</v>
       </c>
       <c r="T36" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.67881391045240136</v>
+        <v>0.67453560912905086</v>
       </c>
       <c r="U36" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.67691859374835117</v>
+        <v>0.67154174546133316</v>
       </c>
       <c r="V36" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.67952409864728536</v>
+        <v>0.66925756209379517</v>
       </c>
       <c r="W36" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.78936535739052738</v>
+        <v>0.79728279028851079</v>
       </c>
       <c r="X36" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.79616413921185258</v>
+        <v>0.79251532984503825</v>
       </c>
       <c r="Y36" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.79480262540662261</v>
+        <v>0.79935306544709139</v>
       </c>
       <c r="Z36" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.80438440943147715</v>
+        <v>0.79746136629414166</v>
       </c>
       <c r="AA36" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.80925940819319198</v>
+        <v>0.80546960000886703</v>
       </c>
       <c r="AB36" s="21"/>
       <c r="AC36" s="21"/>
       <c r="AD36" s="21"/>
       <c r="AH36" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.30577048131539009</v>
+        <v>0.30164640667082987</v>
       </c>
       <c r="AI36" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.44006299434302626</v>
+        <v>0.43968773508118969</v>
       </c>
       <c r="AJ36" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.56108017592934789</v>
+        <v>0.55563887125292943</v>
       </c>
       <c r="AK36" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.69644146472678847</v>
+        <v>0.69225413819567105</v>
       </c>
       <c r="AL36" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.81213254809194901</v>
+        <v>0.81361470938123892</v>
       </c>
     </row>
     <row r="37" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.29304549612571507</v>
+        <v>0.29540597823555692</v>
       </c>
       <c r="D37" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.2878054013480818</v>
+        <v>0.30133730711780488</v>
       </c>
       <c r="E37" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.2943550089249482</v>
+        <v>0.29876959398317593</v>
       </c>
       <c r="F37" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.30417703049393285</v>
+        <v>0.29946575801586839</v>
       </c>
       <c r="G37" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.3038083143655757</v>
+        <v>0.30997708549340086</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.42220326781270812</v>
+        <v>0.41143762387527205</v>
       </c>
       <c r="I37" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.41823958698552388</v>
+        <v>0.41958714124663454</v>
       </c>
       <c r="J37" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.42295478877346271</v>
+        <v>0.42619414244709242</v>
       </c>
       <c r="K37" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.42562572791346598</v>
+        <v>0.42653103475344711</v>
       </c>
       <c r="L37" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.42820672373881197</v>
+        <v>0.42937856804905095</v>
       </c>
       <c r="M37" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.54666284492683281</v>
+        <v>0.54036940960280866</v>
       </c>
       <c r="N37" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.53949805370374038</v>
+        <v>0.55167504834410019</v>
       </c>
       <c r="O37" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.55134425927733421</v>
+        <v>0.55190059562795835</v>
       </c>
       <c r="P37" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.55473572476508781</v>
+        <v>0.55011423021964223</v>
       </c>
       <c r="Q37" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.55291386801000664</v>
+        <v>0.5577374027539016</v>
       </c>
       <c r="R37" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.66404298047467014</v>
+        <v>0.6736974048953368</v>
       </c>
       <c r="S37" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.67169209629816362</v>
+        <v>0.66138991737261388</v>
       </c>
       <c r="T37" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.67881391045240136</v>
+        <v>0.67453560912905086</v>
       </c>
       <c r="U37" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.67691859374835117</v>
+        <v>0.67154174546133316</v>
       </c>
       <c r="V37" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.67952409864728536</v>
+        <v>0.66925756209379517</v>
       </c>
       <c r="W37" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.78936535739052738</v>
+        <v>0.79728279028851079</v>
       </c>
       <c r="X37" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.79616413921185258</v>
+        <v>0.79251532984503825</v>
       </c>
       <c r="Y37" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.79480262540662261</v>
+        <v>0.79935306544709139</v>
       </c>
       <c r="Z37" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.80438440943147715</v>
+        <v>0.79746136629414166</v>
       </c>
       <c r="AA37" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.80925940819319198</v>
+        <v>0.80546960000886703</v>
       </c>
       <c r="AB37" s="21"/>
       <c r="AC37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AH37" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.31350550425004348</v>
+        <v>0.30480440003340847</v>
       </c>
       <c r="AI37" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.44681723488948333</v>
+        <v>0.44694129804882349</v>
       </c>
       <c r="AJ37" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.56886086694910276</v>
+        <v>0.56070727745387883</v>
       </c>
       <c r="AK37" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.69933214109814867</v>
+        <v>0.69915653089095531</v>
       </c>
       <c r="AL37" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.81652194524858601</v>
+        <v>0.81856512764127587</v>
       </c>
     </row>
     <row r="38" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.30041867538663264</v>
+        <v>0.30147945198781967</v>
       </c>
       <c r="D38" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.29882827384083327</v>
+        <v>0.31417356385510403</v>
       </c>
       <c r="E38" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.29974091073650971</v>
+        <v>0.30747213206415952</v>
       </c>
       <c r="F38" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.31655955759764043</v>
+        <v>0.30788489811334396</v>
       </c>
       <c r="G38" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.31497020672436504</v>
+        <v>0.32235331260855066</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.43572424566727469</v>
+        <v>0.42432412850199036</v>
       </c>
       <c r="I38" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.43257796928022657</v>
+        <v>0.42512333569379213</v>
       </c>
       <c r="J38" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.42816819847438226</v>
+        <v>0.43251332786808799</v>
       </c>
       <c r="K38" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.44077731932136416</v>
+        <v>0.44067832504056237</v>
       </c>
       <c r="L38" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.43770485134874493</v>
+        <v>0.44382070477329494</v>
       </c>
       <c r="M38" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.5610413490359516</v>
+        <v>0.55090142733159797</v>
       </c>
       <c r="N38" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.54798847976088183</v>
+        <v>0.56463177119995323</v>
       </c>
       <c r="O38" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.56256708977658565</v>
+        <v>0.56553389291311773</v>
       </c>
       <c r="P38" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.56272298880233029</v>
+        <v>0.56337670176982269</v>
       </c>
       <c r="Q38" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.56355091504971899</v>
+        <v>0.56489678701616097</v>
       </c>
       <c r="R38" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.67210894597096971</v>
+        <v>0.68411934217101189</v>
       </c>
       <c r="S38" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.68010282817477796</v>
+        <v>0.67567833202898175</v>
       </c>
       <c r="T38" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.68799631401583561</v>
+        <v>0.6872863965286321</v>
       </c>
       <c r="U38" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.68596330841373543</v>
+        <v>0.68050092551478847</v>
       </c>
       <c r="V38" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.69135117517301992</v>
+        <v>0.68420441459454029</v>
       </c>
       <c r="W38" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.79743707446372114</v>
+        <v>0.8071037334929424</v>
       </c>
       <c r="X38" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.80614420046787749</v>
+        <v>0.79822945344632357</v>
       </c>
       <c r="Y38" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.80228296373281949</v>
+        <v>0.80474107772896153</v>
       </c>
       <c r="Z38" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.8118324605181283</v>
+        <v>0.80791259103816981</v>
       </c>
       <c r="AA38" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.81811725454109296</v>
+        <v>0.82092377332417477</v>
       </c>
       <c r="AB38" s="21"/>
       <c r="AC38" s="21"/>
       <c r="AD38" s="21"/>
       <c r="AH38" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.31789722888859545</v>
+        <v>0.31074820821687488</v>
       </c>
       <c r="AI38" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.45274767112576986</v>
+        <v>0.45260975831576666</v>
       </c>
       <c r="AJ38" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.5772335853856212</v>
+        <v>0.56533280400548047</v>
       </c>
       <c r="AK38" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.70600357093116473</v>
+        <v>0.70945731713315319</v>
       </c>
       <c r="AL38" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.82572187779281425</v>
+        <v>0.82726671263475215</v>
       </c>
     </row>
     <row r="39" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.30563173340615563</v>
+        <v>0.30436996785145531</v>
       </c>
       <c r="D39" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.30394990313780007</v>
+        <v>0.31927341460363606</v>
       </c>
       <c r="E39" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.30403973113006505</v>
+        <v>0.31026315278336314</v>
       </c>
       <c r="F39" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.32268480568749369</v>
+        <v>0.31334127414653179</v>
       </c>
       <c r="G39" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.32052275272206388</v>
+        <v>0.32576730109412144</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.4399763552552417</v>
+        <v>0.42935006227979783</v>
       </c>
       <c r="I39" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.43646428179059771</v>
+        <v>0.42866299059675139</v>
       </c>
       <c r="J39" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.43371173821040193</v>
+        <v>0.43719125253213509</v>
       </c>
       <c r="K39" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.44684048478066685</v>
+        <v>0.44626811536289529</v>
       </c>
       <c r="L39" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.44041332339128597</v>
+        <v>0.44837145292515412</v>
       </c>
       <c r="M39" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.56322541648234481</v>
+        <v>0.55573552975925566</v>
       </c>
       <c r="N39" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.55390525626365239</v>
+        <v>0.56747105730016068</v>
       </c>
       <c r="O39" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.56660845056081688</v>
+        <v>0.57161456327369775</v>
       </c>
       <c r="P39" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.56598653760808892</v>
+        <v>0.56606839359773253</v>
       </c>
       <c r="Q39" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.56768245072441426</v>
+        <v>0.57002979943632248</v>
       </c>
       <c r="R39" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.67457110470782433</v>
+        <v>0.68881816813312102</v>
       </c>
       <c r="S39" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.68445822653293087</v>
+        <v>0.6793414122075806</v>
       </c>
       <c r="T39" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.69191532011955381</v>
+        <v>0.69157730163729647</v>
       </c>
       <c r="U39" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.69072490484464533</v>
+        <v>0.6851165743874027</v>
       </c>
       <c r="V39" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.69689121478867433</v>
+        <v>0.68726102180751292</v>
       </c>
       <c r="W39" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.80070791211283288</v>
+        <v>0.81001750302556852</v>
       </c>
       <c r="X39" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.80996037195179205</v>
+        <v>0.80384384786452467</v>
       </c>
       <c r="Y39" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.80802428735597154</v>
+        <v>0.80950913706930083</v>
       </c>
       <c r="Z39" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.81758240903069868</v>
+        <v>0.81176906591496345</v>
       </c>
       <c r="AA39" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.82091124987401698</v>
+        <v>0.8251335788915839</v>
       </c>
       <c r="AB39" s="21"/>
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
       <c r="AH39" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.32436733677404939</v>
+        <v>0.31567407299827588</v>
       </c>
       <c r="AI39" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.4620787943980072</v>
+        <v>0.45686520105107203</v>
       </c>
       <c r="AJ39" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.58183901824688755</v>
+        <v>0.57453039065066192</v>
       </c>
       <c r="AK39" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.71312990395250431</v>
+        <v>0.71551322494204128</v>
       </c>
       <c r="AL39" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.83165884324298645</v>
+        <v>0.83667590858276286</v>
       </c>
     </row>
     <row r="40" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.30837172376721583</v>
+        <v>0.30808775867041244</v>
       </c>
       <c r="D40" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.30715110679490998</v>
+        <v>0.3214728279887456</v>
       </c>
       <c r="E40" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.30619106828871895</v>
+        <v>0.31534504672391267</v>
       </c>
       <c r="F40" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.32469264727981778</v>
+        <v>0.31655328250884834</v>
       </c>
       <c r="G40" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.32441028781284831</v>
+        <v>0.33033445875532919</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.44311880693692851</v>
+        <v>0.43194321791704726</v>
       </c>
       <c r="I40" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.43938272505918452</v>
+        <v>0.43061935764976539</v>
       </c>
       <c r="J40" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.43696682009274179</v>
+        <v>0.44087213130499714</v>
       </c>
       <c r="K40" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.45038954091156896</v>
+        <v>0.45093796618906995</v>
       </c>
       <c r="L40" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.44557033840588184</v>
+        <v>0.45221461871988949</v>
       </c>
       <c r="M40" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.56655345021519588</v>
+        <v>0.55982915027967661</v>
       </c>
       <c r="N40" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.55731964511805376</v>
+        <v>0.57170516423818196</v>
       </c>
       <c r="O40" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.56914102668362487</v>
+        <v>0.57535228455217258</v>
       </c>
       <c r="P40" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.56792056515597522</v>
+        <v>0.56986322829605396</v>
       </c>
       <c r="Q40" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.57092406081730918</v>
+        <v>0.57497658214212077</v>
       </c>
       <c r="R40" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.67843099813930319</v>
+        <v>0.690656989847383</v>
       </c>
       <c r="S40" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.6882624472353831</v>
+        <v>0.68338929259037506</v>
       </c>
       <c r="T40" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.69413921559469627</v>
+        <v>0.6933357557718608</v>
       </c>
       <c r="U40" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.69323215744555167</v>
+        <v>0.68764638014026713</v>
       </c>
       <c r="V40" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.6999721445745285</v>
+        <v>0.68945620963511223</v>
       </c>
       <c r="W40" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.80585621851497047</v>
+        <v>0.81302334230830953</v>
       </c>
       <c r="X40" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.81261658813188875</v>
+        <v>0.80810097219159904</v>
       </c>
       <c r="Y40" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.81068221508494354</v>
+        <v>0.81336847567042914</v>
       </c>
       <c r="Z40" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.82223013161949454</v>
+        <v>0.81478160857399062</v>
       </c>
       <c r="AA40" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.82514134017376795</v>
+        <v>0.82716558562479403</v>
       </c>
       <c r="AB40" s="21"/>
       <c r="AC40" s="21"/>
       <c r="AD40" s="21"/>
       <c r="AH40" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.32854161551067135</v>
+        <v>0.32110353525424862</v>
       </c>
       <c r="AI40" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.46702196262461004</v>
+        <v>0.46221302536028402</v>
       </c>
       <c r="AJ40" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.58953007415278047</v>
+        <v>0.57809126060149529</v>
       </c>
       <c r="AK40" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.72198532179185593</v>
+        <v>0.7201793796274899</v>
       </c>
       <c r="AL40" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.83551034131457069</v>
+        <v>0.84555593500526072</v>
       </c>
     </row>
     <row r="41" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.31660143345164377</v>
+        <v>0.31630712041343767</v>
       </c>
       <c r="D41" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.3102915493481409</v>
+        <v>0.32734987659720477</v>
       </c>
       <c r="E41" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.31128377941053026</v>
+        <v>0.32079733209669775</v>
       </c>
       <c r="F41" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.3319251836841724</v>
+        <v>0.32021439817988367</v>
       </c>
       <c r="G41" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.32950168589786644</v>
+        <v>0.33384661971460355</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.44733553121251973</v>
+        <v>0.43487234670165736</v>
       </c>
       <c r="I41" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.44516958171461168</v>
+        <v>0.43751936579467904</v>
       </c>
       <c r="J41" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.43975560531223734</v>
+        <v>0.44822415288792244</v>
       </c>
       <c r="K41" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.45406198393060715</v>
+        <v>0.45426515098934217</v>
       </c>
       <c r="L41" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.45120245909453316</v>
+        <v>0.45814166585182514</v>
       </c>
       <c r="M41" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.57404128947835553</v>
+        <v>0.56712865073354102</v>
       </c>
       <c r="N41" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.56376563012654957</v>
+        <v>0.57599366774777738</v>
       </c>
       <c r="O41" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.57503454916504804</v>
+        <v>0.58104268100550349</v>
       </c>
       <c r="P41" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.57575281807537249</v>
+        <v>0.57636494365588331</v>
       </c>
       <c r="Q41" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.57500705634611193</v>
+        <v>0.57918832002149689</v>
       </c>
       <c r="R41" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.68188357395801125</v>
+        <v>0.696284864483384</v>
       </c>
       <c r="S41" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.69494809865276863</v>
+        <v>0.68858550974160493</v>
       </c>
       <c r="T41" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.6992644676853651</v>
+        <v>0.69730198566278057</v>
       </c>
       <c r="U41" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.69669558740288529</v>
+        <v>0.69414231295319351</v>
       </c>
       <c r="V41" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.70456713585638708</v>
+        <v>0.69728561629149488</v>
       </c>
       <c r="W41" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.80983514980539872</v>
+        <v>0.82059615753708193</v>
       </c>
       <c r="X41" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.82021159927145271</v>
+        <v>0.81245374001620407</v>
       </c>
       <c r="Y41" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.816574008380477</v>
+        <v>0.81839222589503879</v>
       </c>
       <c r="Z41" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.8250265691048243</v>
+        <v>0.82067293699844868</v>
       </c>
       <c r="AA41" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.83007023255175227</v>
+        <v>0.831694028003505</v>
       </c>
       <c r="AB41" s="21"/>
       <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
       <c r="AH41" s="28">
         <f t="shared" ca="1" si="59"/>
-        <v>0.3325095483854163</v>
+        <v>0.3251257585224725</v>
       </c>
       <c r="AI41" s="28">
         <f t="shared" ca="1" si="60"/>
-        <v>0.47337330019502094</v>
+        <v>0.47113755097616317</v>
       </c>
       <c r="AJ41" s="28">
         <f t="shared" ca="1" si="61"/>
-        <v>0.59435927051980031</v>
+        <v>0.58338767837634053</v>
       </c>
       <c r="AK41" s="28">
         <f t="shared" ca="1" si="62"/>
-        <v>0.72563642617555402</v>
+        <v>0.72897907999918954</v>
       </c>
       <c r="AL41" s="28">
         <f t="shared" ca="1" si="63"/>
-        <v>0.84233352642829284</v>
+        <v>0.85029158426044493</v>
       </c>
     </row>
     <row r="42" spans="3:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.32654288698263373</v>
+        <v>0.32212391653811451</v>
       </c>
       <c r="D42" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.32039509773686869</v>
+        <v>0.3336245392121569</v>
       </c>
       <c r="E42" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.31973180496427339</v>
+        <v>0.33091264568852252</v>
       </c>
       <c r="F42" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.33638422488341796</v>
+        <v>0.32754093554335262</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.33709865155541524</v>
+        <v>0.33863285577503149</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.45125342237377619</v>
+        <v>0.44509777993998784</v>
       </c>
       <c r="I42" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.44897544155869717</v>
+        <v>0.44263866822817333</v>
       </c>
       <c r="J42" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.44332671286418923</v>
+        <v>0.45787372017914618</v>
       </c>
       <c r="K42" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.46374286348466698</v>
+        <v>0.45779091891767798</v>
       </c>
       <c r="L42" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.46065640382181577</v>
+        <v>0.46436517921396797</v>
       </c>
       <c r="M42" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.58214784900702832</v>
+        <v>0.5744774118473317</v>
       </c>
       <c r="N42" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.57157250702599982</v>
+        <v>0.58444722322665221</v>
       </c>
       <c r="O42" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.57979697721383228</v>
+        <v>0.58834498217217668</v>
       </c>
       <c r="P42" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.58563001048481422</v>
+        <v>0.5807961822333535</v>
       </c>
       <c r="Q42" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.57999593086149726</v>
+        <v>0.58796084835229623</v>
       </c>
       <c r="R42" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.68544842993352262</v>
+        <v>0.7042734811335255</v>
       </c>
       <c r="S42" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.69954007192427514</v>
+        <v>0.69230014592559874</v>
       </c>
       <c r="T42" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.70293167741945006</v>
+        <v>0.70504746233424131</v>
       </c>
       <c r="U42" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.70429741415639746</v>
+        <v>0.70304901400049724</v>
       </c>
       <c r="V42" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.70969000740136112</v>
+        <v>0.70110132529761404</v>
       </c>
       <c r="W42" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.81732807312300293</v>
+        <v>0.82638323751700093</v>
       </c>
       <c r="X42" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.82909185929906304</v>
+        <v>0.82146334500668583</v>
       </c>
       <c r="Y42" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.82023211054851985</v>
+        <v>0.82382259793615509</v>
       </c>
       <c r="Z42" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.83355524515696977</v>
+        <v>0.83015076718886605</v>
       </c>
       <c r="AA42" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.83838190545335267</v>
+        <v>0.84130768130104905</v>
       </c>
       <c r="AB42" s="21"/>
       <c r="AC42" s="21"/>
       <c r="AD42" s="21"/>
       <c r="AH42" s="31">
         <f t="shared" ca="1" si="59"/>
-        <v>0.33884088051349931</v>
+        <v>0.32876552308085649</v>
       </c>
       <c r="AI42" s="31">
         <f t="shared" ca="1" si="60"/>
-        <v>0.48072031437125795</v>
+        <v>0.47962505199567029</v>
       </c>
       <c r="AJ42" s="31">
         <f t="shared" ca="1" si="61"/>
-        <v>0.60297787551530968</v>
+        <v>0.59125044258159454</v>
       </c>
       <c r="AK42" s="31">
         <f t="shared" ca="1" si="62"/>
-        <v>0.73154271804709103</v>
+        <v>0.73828567448282667</v>
       </c>
       <c r="AL42" s="31">
         <f t="shared" ca="1" si="63"/>
-        <v>0.84862430461844562</v>
+        <v>0.85807173983078633</v>
       </c>
     </row>
     <row r="43" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.33282570880263407</v>
+        <v>0.33087611222840368</v>
       </c>
       <c r="D43" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.32617790304227173</v>
+        <v>0.33961021101723399</v>
       </c>
       <c r="E43" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.32432253771717851</v>
+        <v>0.33888502450451014</v>
       </c>
       <c r="F43" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.34212491705687076</v>
+        <v>0.33645686949556786</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.3431344098400097</v>
+        <v>0.34804132088241696</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.4615184268440915</v>
+        <v>0.45392810036265907</v>
       </c>
       <c r="I43" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.45723578760235678</v>
+        <v>0.45078256893946628</v>
       </c>
       <c r="J43" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.45310772535365051</v>
+        <v>0.46281031034578807</v>
       </c>
       <c r="K43" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.47318614990145885</v>
+        <v>0.46804127624548941</v>
       </c>
       <c r="L43" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.46450768885099675</v>
+        <v>0.47196591364817814</v>
       </c>
       <c r="M43" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.59089238632917451</v>
+        <v>0.58321463431888843</v>
       </c>
       <c r="N43" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.57619068022312703</v>
+        <v>0.59320167491542908</v>
       </c>
       <c r="O43" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.58393482602744173</v>
+        <v>0.5925717139435287</v>
       </c>
       <c r="P43" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.58978675389752955</v>
+        <v>0.58935626267857932</v>
       </c>
       <c r="Q43" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.58946053519443153</v>
+        <v>0.59755905491372252</v>
       </c>
       <c r="R43" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.69494406832018318</v>
+        <v>0.71229918384381929</v>
       </c>
       <c r="S43" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.70807624246054246</v>
+        <v>0.70184727511148126</v>
       </c>
       <c r="T43" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.71208905413415491</v>
+        <v>0.71428831595882014</v>
       </c>
       <c r="U43" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.70879467897386084</v>
+        <v>0.70905742914872927</v>
       </c>
       <c r="V43" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.71681337411886337</v>
+        <v>0.706417580962451</v>
       </c>
       <c r="W43" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.82531372480425524</v>
+        <v>0.83678606763884034</v>
       </c>
       <c r="X43" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.83754830360608079</v>
+        <v>0.82873794258730016</v>
       </c>
       <c r="Y43" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.82397785529914191</v>
+        <v>0.82901488765554288</v>
       </c>
       <c r="Z43" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.84195285942318721</v>
+        <v>0.84009235887409606</v>
       </c>
       <c r="AA43" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.84787461564122024</v>
+        <v>0.84745646114532602</v>
       </c>
       <c r="AB43" s="21"/>
       <c r="AC43" s="21"/>
@@ -6395,728 +6395,728 @@
     <row r="44" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.34101631328952609</v>
+        <v>0.33976209748218106</v>
       </c>
       <c r="D44" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.33472116695828047</v>
+        <v>0.34667570018975696</v>
       </c>
       <c r="E44" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.33342518001621185</v>
+        <v>0.34788794222857672</v>
       </c>
       <c r="F44" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.3452602473308522</v>
+        <v>0.34278317977058104</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.34967374443000787</v>
+        <v>0.35184097279223064</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.46796739218661143</v>
+        <v>0.46238379519182032</v>
       </c>
       <c r="I44" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.46417428864122734</v>
+        <v>0.4576709454297353</v>
       </c>
       <c r="J44" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.45724402080096727</v>
+        <v>0.47089758385160918</v>
       </c>
       <c r="K44" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.48227481772881442</v>
+        <v>0.47424032963431839</v>
       </c>
       <c r="L44" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.4733859941294512</v>
+        <v>0.47712512999942974</v>
       </c>
       <c r="M44" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.5940706428736845</v>
+        <v>0.58775257606353126</v>
       </c>
       <c r="N44" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.58467518351614434</v>
+        <v>0.5976988970892404</v>
       </c>
       <c r="O44" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.588168320184427</v>
+        <v>0.59617550781467454</v>
       </c>
       <c r="P44" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.59702100146557624</v>
+        <v>0.59376322827667793</v>
       </c>
       <c r="Q44" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.59556386948821882</v>
+        <v>0.60331395300485791</v>
       </c>
       <c r="R44" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.7012485049994851</v>
+        <v>0.7191562411126361</v>
       </c>
       <c r="S44" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.7119531977719934</v>
+        <v>0.70803706767418995</v>
       </c>
       <c r="T44" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.7153844229538513</v>
+        <v>0.72127428231674606</v>
       </c>
       <c r="U44" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.7136079982794532</v>
+        <v>0.713923291677384</v>
       </c>
       <c r="V44" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.7237552370351189</v>
+        <v>0.71057343844812404</v>
       </c>
       <c r="W44" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.83034341719753346</v>
+        <v>0.84409183486835127</v>
       </c>
       <c r="X44" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.84094172538826339</v>
+        <v>0.83280688334532438</v>
       </c>
       <c r="Y44" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.83210785986562275</v>
+        <v>0.83343848231215056</v>
       </c>
       <c r="Z44" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.851101899656587</v>
+        <v>0.8449883599115936</v>
       </c>
       <c r="AA44" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.85398729352724179</v>
+        <v>0.85102451171238935</v>
       </c>
       <c r="AB44" s="21"/>
       <c r="AC44" s="21"/>
       <c r="AD44" s="21"/>
       <c r="AH44" s="28">
         <f t="shared" ref="AH44:AH62" ca="1" si="110">(AH43+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.25864946729892663</v>
+        <v>0.2602912466668395</v>
       </c>
       <c r="AI44" s="28">
         <f t="shared" ref="AI44:AI62" ca="1" si="111">(AI43+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.38502329489942777</v>
+        <v>0.38563786552455981</v>
       </c>
       <c r="AJ44" s="28">
         <f t="shared" ref="AJ44:AJ62" ca="1" si="112">(AJ43+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.50868137661109281</v>
+        <v>0.50840116241054845</v>
       </c>
       <c r="AK44" s="28">
         <f t="shared" ref="AK44:AK62" ca="1" si="113">(AK43+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.63459462811946621</v>
+        <v>0.63530376738184591</v>
       </c>
       <c r="AL44" s="28">
         <f t="shared" ref="AL44:AL62" ca="1" si="114">(AL43+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.76057121227452651</v>
+        <v>0.75979207655942638</v>
       </c>
     </row>
     <row r="45" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="7">
         <f t="shared" ca="1" si="85"/>
-        <v>0.34966678486578884</v>
+        <v>0.34434099130919976</v>
       </c>
       <c r="D45" s="28">
         <f t="shared" ca="1" si="86"/>
-        <v>0.33938028118114172</v>
+        <v>0.35505624802990599</v>
       </c>
       <c r="E45" s="28">
         <f t="shared" ca="1" si="87"/>
-        <v>0.33712413154784088</v>
+        <v>0.35407647693632127</v>
       </c>
       <c r="F45" s="28">
         <f t="shared" ca="1" si="88"/>
-        <v>0.35296034683643296</v>
+        <v>0.35043949956447396</v>
       </c>
       <c r="G45" s="30">
         <f t="shared" ca="1" si="89"/>
-        <v>0.35538850302033687</v>
+        <v>0.35991640978466111</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" ca="1" si="90"/>
-        <v>0.47360098010257556</v>
+        <v>0.47005999128810549</v>
       </c>
       <c r="I45" s="28">
         <f t="shared" ca="1" si="91"/>
-        <v>0.47312451120999721</v>
+        <v>0.46678786431337088</v>
       </c>
       <c r="J45" s="28">
         <f t="shared" ca="1" si="92"/>
-        <v>0.46427424532826367</v>
+        <v>0.47779387696606784</v>
       </c>
       <c r="K45" s="28">
         <f t="shared" ca="1" si="93"/>
-        <v>0.4862351904619579</v>
+        <v>0.47908222842604897</v>
       </c>
       <c r="L45" s="34">
         <f t="shared" ca="1" si="94"/>
-        <v>0.47754792973602539</v>
+        <v>0.48240754202807301</v>
       </c>
       <c r="M45" s="7">
         <f t="shared" ca="1" si="95"/>
-        <v>0.59776079932028436</v>
+        <v>0.59445834682132104</v>
       </c>
       <c r="N45" s="28">
         <f t="shared" ca="1" si="96"/>
-        <v>0.58834718898742422</v>
+        <v>0.60433549332784986</v>
       </c>
       <c r="O45" s="28">
         <f t="shared" ca="1" si="97"/>
-        <v>0.59360731456532112</v>
+        <v>0.60319415305607582</v>
       </c>
       <c r="P45" s="28">
         <f t="shared" ca="1" si="98"/>
-        <v>0.60390625340902782</v>
+        <v>0.59782935060289144</v>
       </c>
       <c r="Q45" s="30">
         <f t="shared" ca="1" si="99"/>
-        <v>0.59941677492942691</v>
+        <v>0.61155305420809691</v>
       </c>
       <c r="R45" s="7">
         <f t="shared" ca="1" si="100"/>
-        <v>0.70659046898456712</v>
+        <v>0.72771128209190084</v>
       </c>
       <c r="S45" s="28">
         <f t="shared" ca="1" si="101"/>
-        <v>0.71984200878140392</v>
+        <v>0.71338226022583684</v>
       </c>
       <c r="T45" s="28">
         <f t="shared" ca="1" si="102"/>
-        <v>0.72232427085086648</v>
+        <v>0.72480894127514672</v>
       </c>
       <c r="U45" s="28">
         <f t="shared" ca="1" si="103"/>
-        <v>0.71761258439631215</v>
+        <v>0.72044678417260188</v>
       </c>
       <c r="V45" s="30">
         <f t="shared" ca="1" si="104"/>
-        <v>0.73033895895471079</v>
+        <v>0.71739164972656078</v>
       </c>
       <c r="W45" s="7">
         <f t="shared" ca="1" si="105"/>
-        <v>0.83893293506039657</v>
+        <v>0.84765067083269252</v>
       </c>
       <c r="X45" s="28">
         <f t="shared" ca="1" si="106"/>
-        <v>0.84941813587089565</v>
+        <v>0.83923175252794502</v>
       </c>
       <c r="Y45" s="28">
         <f t="shared" ca="1" si="107"/>
-        <v>0.83836778585447935</v>
+        <v>0.83904967734651326</v>
       </c>
       <c r="Z45" s="28">
         <f t="shared" ca="1" si="108"/>
-        <v>0.85427705230812045</v>
+        <v>0.85184130240995448</v>
       </c>
       <c r="AA45" s="30">
         <f t="shared" ca="1" si="109"/>
-        <v>0.86116939311110707</v>
+        <v>0.85981849608443139</v>
       </c>
       <c r="AB45" s="21"/>
       <c r="AC45" s="21"/>
       <c r="AD45" s="21"/>
       <c r="AH45" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.25976524244194532</v>
+        <v>0.26218235568396514</v>
       </c>
       <c r="AI45" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.38613856842560235</v>
+        <v>0.3869956350327779</v>
       </c>
       <c r="AJ45" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.51024284538564491</v>
+        <v>0.51044576792583174</v>
       </c>
       <c r="AK45" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.63645999769099926</v>
+        <v>0.63652035186545508</v>
       </c>
       <c r="AL45" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.76198101153192033</v>
+        <v>0.76112571358463055</v>
       </c>
     </row>
     <row r="46" spans="3:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="8">
         <f t="shared" ca="1" si="85"/>
-        <v>0.3535740926643649</v>
+        <v>0.3525347714928882</v>
       </c>
       <c r="D46" s="31">
         <f t="shared" ca="1" si="86"/>
-        <v>0.34790798293102448</v>
+        <v>0.3605955822568202</v>
       </c>
       <c r="E46" s="31">
         <f t="shared" ca="1" si="87"/>
-        <v>0.34298887544984108</v>
+        <v>0.3598556533298411</v>
       </c>
       <c r="F46" s="31">
         <f t="shared" ca="1" si="88"/>
-        <v>0.356559212533133</v>
+        <v>0.36063407464802433</v>
       </c>
       <c r="G46" s="32">
         <f t="shared" ca="1" si="89"/>
-        <v>0.3623209609240482</v>
+        <v>0.36760591580075608</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" ca="1" si="90"/>
-        <v>0.4836036035657616</v>
+        <v>0.4754968713687745</v>
       </c>
       <c r="I46" s="31">
         <f t="shared" ca="1" si="91"/>
-        <v>0.47929862305381565</v>
+        <v>0.47355190802749014</v>
       </c>
       <c r="J46" s="31">
         <f t="shared" ca="1" si="92"/>
-        <v>0.4735694100583176</v>
+        <v>0.48313139011435857</v>
       </c>
       <c r="K46" s="31">
         <f t="shared" ca="1" si="93"/>
-        <v>0.4900669622217208</v>
+        <v>0.48379373074689563</v>
       </c>
       <c r="L46" s="35">
         <f t="shared" ca="1" si="94"/>
-        <v>0.48622077092324112</v>
+        <v>0.48758679085959922</v>
       </c>
       <c r="M46" s="8">
         <f t="shared" ca="1" si="95"/>
-        <v>0.60379183523444513</v>
+        <v>0.59843682125744035</v>
       </c>
       <c r="N46" s="31">
         <f t="shared" ca="1" si="96"/>
-        <v>0.59615813588544031</v>
+        <v>0.61351408865147761</v>
       </c>
       <c r="O46" s="31">
         <f t="shared" ca="1" si="97"/>
-        <v>0.59780198413844932</v>
+        <v>0.60857668301991119</v>
       </c>
       <c r="P46" s="31">
         <f t="shared" ca="1" si="98"/>
-        <v>0.61016743084848601</v>
+        <v>0.60379094472309824</v>
       </c>
       <c r="Q46" s="32">
         <f t="shared" ca="1" si="99"/>
-        <v>0.60835907753177487</v>
+        <v>0.61727411715389335</v>
       </c>
       <c r="R46" s="8">
         <f t="shared" ca="1" si="100"/>
-        <v>0.71073239936782862</v>
+        <v>0.737691737789128</v>
       </c>
       <c r="S46" s="31">
         <f t="shared" ca="1" si="101"/>
-        <v>0.723563366140761</v>
+        <v>0.71748929293313657</v>
       </c>
       <c r="T46" s="31">
         <f t="shared" ca="1" si="102"/>
-        <v>0.72760354793737403</v>
+        <v>0.7323054414228346</v>
       </c>
       <c r="U46" s="31">
         <f t="shared" ca="1" si="103"/>
-        <v>0.72801016599350188</v>
+        <v>0.72518178048259196</v>
       </c>
       <c r="V46" s="32">
         <f t="shared" ca="1" si="104"/>
-        <v>0.73966051918043951</v>
+        <v>0.72415908638602045</v>
       </c>
       <c r="W46" s="8">
         <f t="shared" ca="1" si="105"/>
-        <v>0.84313109850913637</v>
+        <v>0.8550672976294863</v>
       </c>
       <c r="X46" s="31">
         <f t="shared" ca="1" si="106"/>
-        <v>0.85302488485953698</v>
+        <v>0.84910076257064093</v>
       </c>
       <c r="Y46" s="31">
         <f t="shared" ca="1" si="107"/>
-        <v>0.84463546675969081</v>
+        <v>0.84939741190634199</v>
       </c>
       <c r="Z46" s="31">
         <f t="shared" ca="1" si="108"/>
-        <v>0.85819483252417783</v>
+        <v>0.86180384620587824</v>
       </c>
       <c r="AA46" s="32">
         <f t="shared" ca="1" si="109"/>
-        <v>0.86633830760922692</v>
+        <v>0.86943812579529478</v>
       </c>
       <c r="AB46" s="21"/>
       <c r="AC46" s="21"/>
       <c r="AD46" s="21"/>
       <c r="AH46" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.27219071010903717</v>
+        <v>0.26690673435345003</v>
       </c>
       <c r="AI46" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.39166893605552178</v>
+        <v>0.3925812173626983</v>
       </c>
       <c r="AJ46" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.51931090980473293</v>
+        <v>0.52274844181857405</v>
       </c>
       <c r="AK46" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.64262903800196858</v>
+        <v>0.64576770968624697</v>
       </c>
       <c r="AL46" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.77077338532907447</v>
+        <v>0.76885708269603281</v>
       </c>
     </row>
     <row r="47" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH47" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.28035806025432292</v>
+        <v>0.27324931976895517</v>
       </c>
       <c r="AI47" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.39473583656848676</v>
+        <v>0.39621838566427309</v>
       </c>
       <c r="AJ47" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.52569102058366501</v>
+        <v>0.52796412562988471</v>
       </c>
       <c r="AK47" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.65087407110310291</v>
+        <v>0.64861568039691408</v>
       </c>
       <c r="AL47" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.77543892612479615</v>
+        <v>0.77365619641381411</v>
       </c>
     </row>
     <row r="48" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH48" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.28383870629651431</v>
+        <v>0.27823508027327759</v>
       </c>
       <c r="AI48" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.40255556309924362</v>
+        <v>0.40394259866062315</v>
       </c>
       <c r="AJ48" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.52957960615895605</v>
+        <v>0.53130554334591051</v>
       </c>
       <c r="AK48" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.65381619946801472</v>
+        <v>0.65452688546295923</v>
       </c>
       <c r="AL48" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.78370798059684177</v>
+        <v>0.78065239921089713</v>
       </c>
     </row>
     <row r="49" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH49" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.29295160822774913</v>
+        <v>0.28449207796368831</v>
       </c>
       <c r="AI49" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.40743283105679329</v>
+        <v>0.40743077018844082</v>
       </c>
       <c r="AJ49" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.53869998890992754</v>
+        <v>0.54139823702446765</v>
       </c>
       <c r="AK49" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.65809652251940842</v>
+        <v>0.66017404434856553</v>
       </c>
       <c r="AL49" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.78825077097441454</v>
+        <v>0.78428524251148302</v>
       </c>
     </row>
     <row r="50" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH50" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.29608929617550528</v>
+        <v>0.28754212861952888</v>
       </c>
       <c r="AI50" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.41156052707170521</v>
+        <v>0.41020267113824554</v>
       </c>
       <c r="AJ50" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.54080011002911288</v>
+        <v>0.54334747001023698</v>
       </c>
       <c r="AK50" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.66247479089865979</v>
+        <v>0.66210525650533714</v>
       </c>
       <c r="AL50" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.79289362876125924</v>
+        <v>0.78728037082350388</v>
       </c>
     </row>
     <row r="51" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH51" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.30117993726829534</v>
+        <v>0.29197460114281654</v>
       </c>
       <c r="AI51" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.41620267705934666</v>
+        <v>0.41423679812216441</v>
       </c>
       <c r="AJ51" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.54320927817460829</v>
+        <v>0.54580853976161936</v>
       </c>
       <c r="AK51" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.66749188131963733</v>
+        <v>0.66633548847326463</v>
       </c>
       <c r="AL51" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.79589221314246805</v>
+        <v>0.79040156835739828</v>
       </c>
     </row>
     <row r="52" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH52" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.30718336347513181</v>
+        <v>0.29804522493250213</v>
       </c>
       <c r="AI52" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.4193924221465492</v>
+        <v>0.41791380839933051</v>
       </c>
       <c r="AJ52" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.54706442165628877</v>
+        <v>0.55073854135143296</v>
       </c>
       <c r="AK52" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.67018214462749293</v>
+        <v>0.67058869419253675</v>
       </c>
       <c r="AL52" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.80136629606538201</v>
+        <v>0.79346260540029068</v>
       </c>
     </row>
     <row r="53" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH53" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.30718336347513181</v>
+        <v>0.29804522493250213</v>
       </c>
       <c r="AI53" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.4193924221465492</v>
+        <v>0.41791380839933051</v>
       </c>
       <c r="AJ53" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.54706442165628877</v>
+        <v>0.55073854135143296</v>
       </c>
       <c r="AK53" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.67018214462749293</v>
+        <v>0.67058869419253675</v>
       </c>
       <c r="AL53" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.80136629606538201</v>
+        <v>0.79346260540029068</v>
       </c>
     </row>
     <row r="54" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH54" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.31954347298122232</v>
+        <v>0.31058792782641492</v>
       </c>
       <c r="AI54" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.42719155277461651</v>
+        <v>0.43160555114319205</v>
       </c>
       <c r="AJ54" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.5596766294964316</v>
+        <v>0.564915027796278</v>
       </c>
       <c r="AK54" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.68316295424503459</v>
+        <v>0.67752609601621649</v>
       </c>
       <c r="AL54" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.8108425966269508</v>
+        <v>0.79965036234851772</v>
       </c>
     </row>
     <row r="55" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH55" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.32525732263803703</v>
+        <v>0.31306145460909951</v>
       </c>
       <c r="AI55" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.43169880549665529</v>
+        <v>0.43372209505404086</v>
       </c>
       <c r="AJ55" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.56311450677609631</v>
+        <v>0.57074139304851057</v>
       </c>
       <c r="AK55" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.68858390681958792</v>
+        <v>0.68326250132859434</v>
       </c>
       <c r="AL55" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.81523986433349516</v>
+        <v>0.80345460839420757</v>
       </c>
     </row>
     <row r="56" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH56" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.33035433162001215</v>
+        <v>0.31656066910084146</v>
       </c>
       <c r="AI56" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.4335466420165654</v>
+        <v>0.43819317267938362</v>
       </c>
       <c r="AJ56" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.56525541716226169</v>
+        <v>0.57548393457187097</v>
       </c>
       <c r="AK56" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.69322322966510741</v>
+        <v>0.68529354301212864</v>
       </c>
       <c r="AL56" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.82018997080258682</v>
+        <v>0.80854695132737708</v>
       </c>
     </row>
     <row r="57" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH57" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.33835291448933641</v>
+        <v>0.32149295978224063</v>
       </c>
       <c r="AI57" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.43823300857708064</v>
+        <v>0.44155764608553244</v>
       </c>
       <c r="AJ57" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.5727560914800931</v>
+        <v>0.58079564801088146</v>
       </c>
       <c r="AK57" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.69949737319065042</v>
+        <v>0.69275370131532765</v>
       </c>
       <c r="AL57" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.82444812873461948</v>
+        <v>0.81622368536305168</v>
       </c>
     </row>
     <row r="58" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH58" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.34704795798025018</v>
+        <v>0.32902286962203742</v>
       </c>
       <c r="AI58" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.4460648734715929</v>
+        <v>0.44880865330083713</v>
       </c>
       <c r="AJ58" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.57654096473512084</v>
+        <v>0.58758644213522759</v>
       </c>
       <c r="AK58" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.70796808156240998</v>
+        <v>0.69767933600834686</v>
       </c>
       <c r="AL58" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.82802473726763026</v>
+        <v>0.82450175561261407</v>
       </c>
     </row>
     <row r="59" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH59" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.3518828701707693</v>
+        <v>0.33685885472915872</v>
       </c>
       <c r="AI59" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.45371396035405454</v>
+        <v>0.45894948140910868</v>
       </c>
       <c r="AJ59" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.58521783203327649</v>
+        <v>0.59295310766144727</v>
       </c>
       <c r="AK59" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.71203311300430938</v>
+        <v>0.70727335203140029</v>
       </c>
       <c r="AL59" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.83487872067145164</v>
+        <v>0.82867581441792348</v>
       </c>
     </row>
     <row r="60" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH60" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.35934559783278897</v>
+        <v>0.34018114834091506</v>
       </c>
       <c r="AI60" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.45939572582708044</v>
+        <v>0.4670643337229729</v>
       </c>
       <c r="AJ60" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.5897610214854716</v>
+        <v>0.59921298756993147</v>
       </c>
       <c r="AK60" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.72091824537251703</v>
+        <v>0.71462881903292175</v>
       </c>
       <c r="AL60" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.84308912628819721</v>
+        <v>0.83694346450205381</v>
       </c>
     </row>
     <row r="61" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH61" s="28">
         <f t="shared" ca="1" si="110"/>
-        <v>0.36292829873110988</v>
+        <v>0.34880921796697922</v>
       </c>
       <c r="AI61" s="28">
         <f t="shared" ca="1" si="111"/>
-        <v>0.46523862404212979</v>
+        <v>0.47620657064018318</v>
       </c>
       <c r="AJ61" s="28">
         <f t="shared" ca="1" si="112"/>
-        <v>0.59650896826892441</v>
+        <v>0.60486823101401244</v>
       </c>
       <c r="AK61" s="28">
         <f t="shared" ca="1" si="113"/>
-        <v>0.72480561450604986</v>
+        <v>0.71801068430395021</v>
       </c>
       <c r="AL61" s="28">
         <f t="shared" ca="1" si="114"/>
-        <v>0.84901294743696731</v>
+        <v>0.84015371324062338</v>
       </c>
     </row>
     <row r="62" spans="34:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH62" s="31">
         <f t="shared" ca="1" si="110"/>
-        <v>0.37095614645369807</v>
+        <v>0.35280068577232826</v>
       </c>
       <c r="AI62" s="31">
         <f t="shared" ca="1" si="111"/>
-        <v>0.47424073140165079</v>
+        <v>0.48262964748351295</v>
       </c>
       <c r="AJ62" s="31">
         <f t="shared" ca="1" si="112"/>
-        <v>0.6058639915936026</v>
+        <v>0.60998765435562763</v>
       </c>
       <c r="AK62" s="31">
         <f t="shared" ca="1" si="113"/>
-        <v>0.72913009800796524</v>
+        <v>0.72700564609104479</v>
       </c>
       <c r="AL62" s="31">
         <f t="shared" ca="1" si="114"/>
-        <v>0.85444603308373102</v>
+        <v>0.8471340185478724</v>
       </c>
     </row>
     <row r="63" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7144,419 +7144,419 @@
     <row r="64" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH64" s="28">
         <f t="shared" ref="AH64:AH82" ca="1" si="115">(AH63+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.26192296047908498</v>
+        <v>0.26342334719072069</v>
       </c>
       <c r="AI64" s="28">
         <f t="shared" ref="AI64:AI82" ca="1" si="116">(AI63+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.38701728161884058</v>
+        <v>0.38870878221890737</v>
       </c>
       <c r="AJ64" s="28">
         <f t="shared" ref="AJ64:AJ82" ca="1" si="117">(AJ63+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.51354476318424613</v>
+        <v>0.51444888418971435</v>
       </c>
       <c r="AK64" s="28">
         <f t="shared" ref="AK64:AK82" ca="1" si="118">(AK63+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.6368859533310679</v>
+        <v>0.63762035845233866</v>
       </c>
       <c r="AL64" s="28">
         <f t="shared" ref="AL64:AL82" ca="1" si="119">(AL63+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.76448420434345932</v>
+        <v>0.76442923781608896</v>
       </c>
     </row>
     <row r="65" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH65" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.26396348167890288</v>
+        <v>0.26496677289464093</v>
       </c>
       <c r="AI65" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.38809089379806511</v>
+        <v>0.39072108755544588</v>
       </c>
       <c r="AJ65" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.51549780095505982</v>
+        <v>0.51519647375157029</v>
       </c>
       <c r="AK65" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.63865316120307558</v>
+        <v>0.63957189653551039</v>
       </c>
       <c r="AL65" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.76634359356600512</v>
+        <v>0.76577910629194601</v>
       </c>
     </row>
     <row r="66" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH66" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.27412387363910401</v>
+        <v>0.27356707455231416</v>
       </c>
       <c r="AI66" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.39691774525617207</v>
+        <v>0.39603744443086841</v>
       </c>
       <c r="AJ66" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.52452727400182864</v>
+        <v>0.52735683126272692</v>
       </c>
       <c r="AK66" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.64581955964968285</v>
+        <v>0.65005422568355553</v>
       </c>
       <c r="AL66" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.77207116604480441</v>
+        <v>0.77272777306623042</v>
       </c>
     </row>
     <row r="67" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH67" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.28172587588492337</v>
+        <v>0.28116226810755662</v>
       </c>
       <c r="AI67" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.40154363118651548</v>
+        <v>0.39929349558196503</v>
       </c>
       <c r="AJ67" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.53114243424212459</v>
+        <v>0.5321096459392487</v>
       </c>
       <c r="AK67" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.64997691760950649</v>
+        <v>0.65558085130850097</v>
       </c>
       <c r="AL67" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.77873737070413473</v>
+        <v>0.78067818819447998</v>
       </c>
     </row>
     <row r="68" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH68" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.28698305383249462</v>
+        <v>0.2893547634570639</v>
       </c>
       <c r="AI68" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.40956172647059863</v>
+        <v>0.40530890719735613</v>
       </c>
       <c r="AJ68" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.53684867307907325</v>
+        <v>0.53893587959601197</v>
       </c>
       <c r="AK68" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.65484105070897003</v>
+        <v>0.66260722314723031</v>
       </c>
       <c r="AL68" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.78650441694539586</v>
+        <v>0.7854784813307607</v>
       </c>
     </row>
     <row r="69" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH69" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.29084316919848119</v>
+        <v>0.29661823742392807</v>
       </c>
       <c r="AI69" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.41860535833803231</v>
+        <v>0.41256870852624311</v>
       </c>
       <c r="AJ69" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.54675028666385483</v>
+        <v>0.54480460877664638</v>
       </c>
       <c r="AK69" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.65919246941678977</v>
+        <v>0.66825939424000813</v>
       </c>
       <c r="AL69" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.79202332985351664</v>
+        <v>0.79003731127194043</v>
       </c>
     </row>
     <row r="70" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH70" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.29557304689756764</v>
+        <v>0.30014100490226814</v>
       </c>
       <c r="AI70" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.42342523424760958</v>
+        <v>0.41590237194184265</v>
       </c>
       <c r="AJ70" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.55140845796047389</v>
+        <v>0.54778219964708807</v>
       </c>
       <c r="AK70" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.66264289569696755</v>
+        <v>0.67052152299310652</v>
       </c>
       <c r="AL70" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.79681062552392812</v>
+        <v>0.79491431375484467</v>
       </c>
     </row>
     <row r="71" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH71" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.29869321676287336</v>
+        <v>0.30365824527284063</v>
       </c>
       <c r="AI71" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.42735770780303034</v>
+        <v>0.41790889441362228</v>
       </c>
       <c r="AJ71" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.55326607707294762</v>
+        <v>0.55161304044113468</v>
       </c>
       <c r="AK71" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.66659321367147317</v>
+        <v>0.67551984383612007</v>
       </c>
       <c r="AL71" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.80147665662442991</v>
+        <v>0.79946169072076401</v>
       </c>
     </row>
     <row r="72" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH72" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.30246769603951257</v>
+        <v>0.30743853858288961</v>
       </c>
       <c r="AI72" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.4306661448080632</v>
+        <v>0.42383071690898011</v>
       </c>
       <c r="AJ72" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.55673388086873066</v>
+        <v>0.55437250080192435</v>
       </c>
       <c r="AK72" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.67164695014140186</v>
+        <v>0.68011314845496185</v>
       </c>
       <c r="AL72" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.80678865142058098</v>
+        <v>0.80415630290238049</v>
       </c>
     </row>
     <row r="73" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH73" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.30246769603951257</v>
+        <v>0.30743853858288961</v>
       </c>
       <c r="AI73" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.4306661448080632</v>
+        <v>0.42383071690898011</v>
       </c>
       <c r="AJ73" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.55673388086873066</v>
+        <v>0.55437250080192435</v>
       </c>
       <c r="AK73" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.67164695014140186</v>
+        <v>0.68011314845496185</v>
       </c>
       <c r="AL73" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.80678865142058098</v>
+        <v>0.80415630290238049</v>
       </c>
     </row>
     <row r="74" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH74" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.31148366626992463</v>
+        <v>0.31707120245331288</v>
       </c>
       <c r="AI74" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.44537000989309017</v>
+        <v>0.43241315458611729</v>
       </c>
       <c r="AJ74" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.56606623209842677</v>
+        <v>0.56155181391625264</v>
       </c>
       <c r="AK74" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.67909773906048587</v>
+        <v>0.68865280710274779</v>
       </c>
       <c r="AL74" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.81700806064309495</v>
+        <v>0.81709958589990983</v>
       </c>
     </row>
     <row r="75" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH75" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.31566753196275193</v>
+        <v>0.32289379196641788</v>
       </c>
       <c r="AI75" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.45118886199540842</v>
+        <v>0.43572281210030417</v>
       </c>
       <c r="AJ75" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.56907866616772418</v>
+        <v>0.56724594651074678</v>
       </c>
       <c r="AK75" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.68270614445932665</v>
+        <v>0.6922191077977552</v>
       </c>
       <c r="AL75" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.81912260517018698</v>
+        <v>0.82261638551029115</v>
       </c>
     </row>
     <row r="76" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH76" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.31926132538673685</v>
+        <v>0.32715799635478565</v>
       </c>
       <c r="AI76" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.45446800883052529</v>
+        <v>0.43841107311314936</v>
       </c>
       <c r="AJ76" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.57248614791321584</v>
+        <v>0.57089744884434135</v>
       </c>
       <c r="AK76" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.68588335637926434</v>
+        <v>0.69464430456613446</v>
       </c>
       <c r="AL76" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.82340727758768884</v>
+        <v>0.82766455833510255</v>
       </c>
     </row>
     <row r="77" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH77" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.32402009650312791</v>
+        <v>0.33410130987474496</v>
       </c>
       <c r="AI77" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.4609982373122235</v>
+        <v>0.44287266744306525</v>
       </c>
       <c r="AJ77" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.57588563368033274</v>
+        <v>0.57669429532456029</v>
       </c>
       <c r="AK77" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.6925943508048199</v>
+        <v>0.70104289338385462</v>
       </c>
       <c r="AL77" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.83000792905826615</v>
+        <v>0.83086854636533369</v>
       </c>
     </row>
     <row r="78" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH78" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.33210805652386982</v>
+        <v>0.34347373279334653</v>
       </c>
       <c r="AI78" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.4653956615148474</v>
+        <v>0.45129016551060153</v>
       </c>
       <c r="AJ78" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.58547706867327631</v>
+        <v>0.58383003159345703</v>
       </c>
       <c r="AK78" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.70172478274105465</v>
+        <v>0.70957945190051763</v>
       </c>
       <c r="AL78" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.83632272724452272</v>
+        <v>0.83941973408452231</v>
       </c>
     </row>
     <row r="79" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH79" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.33961736163650419</v>
+        <v>0.35200046172072363</v>
       </c>
       <c r="AI79" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.47338338405486691</v>
+        <v>0.46006269303396929</v>
       </c>
       <c r="AJ79" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.59327492725300901</v>
+        <v>0.59046272843557712</v>
       </c>
       <c r="AK79" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.70637002210257915</v>
+        <v>0.71688709578996013</v>
       </c>
       <c r="AL79" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.84160726742091529</v>
+        <v>0.84614422049102966</v>
       </c>
     </row>
     <row r="80" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH80" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.34889976329958466</v>
+        <v>0.36073882642064564</v>
       </c>
       <c r="AI80" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.47869246028222712</v>
+        <v>0.46728077213740432</v>
       </c>
       <c r="AJ80" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.60229788056114297</v>
+        <v>0.59490594740040004</v>
       </c>
       <c r="AK80" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.71070987807644692</v>
+        <v>0.72124352990309493</v>
       </c>
       <c r="AL80" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.84835853175846809</v>
+        <v>0.85157486724075682</v>
       </c>
     </row>
     <row r="81" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH81" s="28">
         <f t="shared" ca="1" si="115"/>
-        <v>0.35367462405110212</v>
+        <v>0.36681530640675475</v>
       </c>
       <c r="AI81" s="28">
         <f t="shared" ca="1" si="116"/>
-        <v>0.48299441713004226</v>
+        <v>0.47260773050771948</v>
       </c>
       <c r="AJ81" s="28">
         <f t="shared" ca="1" si="117"/>
-        <v>0.61096930582931208</v>
+        <v>0.60229190441893266</v>
       </c>
       <c r="AK81" s="28">
         <f t="shared" ca="1" si="118"/>
-        <v>0.71491531275391107</v>
+        <v>0.73015527198196462</v>
       </c>
       <c r="AL81" s="28">
         <f t="shared" ca="1" si="119"/>
-        <v>0.85434075218620276</v>
+        <v>0.85964962775461617</v>
       </c>
     </row>
     <row r="82" spans="34:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH82" s="31">
         <f t="shared" ca="1" si="115"/>
-        <v>0.35997144283561378</v>
+        <v>0.37675097453468742</v>
       </c>
       <c r="AI82" s="31">
         <f t="shared" ca="1" si="116"/>
-        <v>0.48970964264570488</v>
+        <v>0.48192076769793207</v>
       </c>
       <c r="AJ82" s="31">
         <f t="shared" ca="1" si="117"/>
-        <v>0.61770564765087244</v>
+        <v>0.61268143832616628</v>
       </c>
       <c r="AK82" s="31">
         <f t="shared" ca="1" si="118"/>
-        <v>0.72104127104560134</v>
+        <v>0.73363352311275221</v>
       </c>
       <c r="AL82" s="31">
         <f t="shared" ca="1" si="119"/>
-        <v>0.86039134527730476</v>
+        <v>0.86925400325859636</v>
       </c>
     </row>
     <row r="83" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7584,434 +7584,434 @@
     <row r="84" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH84" s="30">
         <f t="shared" ref="AH84:AH102" ca="1" si="120">(AH83+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.26775554130750823</v>
+        <v>0.26762723994374127</v>
       </c>
       <c r="AI84" s="34">
         <f t="shared" ref="AI84:AI102" ca="1" si="121">(AI83+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.39283637302207453</v>
+        <v>0.39205465414807028</v>
       </c>
       <c r="AJ84" s="30">
         <f t="shared" ref="AJ84:AJ102" ca="1" si="122">(AJ83+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.51588671041531631</v>
+        <v>0.51599264242803711</v>
       </c>
       <c r="AK84" s="30">
         <f t="shared" ref="AK84:AK102" ca="1" si="123">(AK83+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.64080124109723291</v>
+        <v>0.64069630972345526</v>
       </c>
       <c r="AL84" s="30">
         <f t="shared" ref="AL84:AL102" ca="1" si="124">(AL83+$AD5) + (-$AE5)+RAND()*($AD5)</f>
-        <v>0.76681866075312943</v>
+        <v>0.76615006383241002</v>
       </c>
     </row>
     <row r="85" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH85" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.26960575643904683</v>
+        <v>0.26962519068798596</v>
       </c>
       <c r="AI85" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.39373044077589775</v>
+        <v>0.39290161736611501</v>
       </c>
       <c r="AJ85" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.51745616866552757</v>
+        <v>0.51785566870758803</v>
       </c>
       <c r="AK85" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.64165546302429199</v>
+        <v>0.64202474885840211</v>
       </c>
       <c r="AL85" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.76769583301325373</v>
+        <v>0.76809269969645266</v>
       </c>
     </row>
     <row r="86" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH86" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.27938939911718308</v>
+        <v>0.27465273895719927</v>
       </c>
       <c r="AI86" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.402043456561259</v>
+        <v>0.4043120393609213</v>
       </c>
       <c r="AJ86" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.5245710334053324</v>
+        <v>0.52433226281997902</v>
       </c>
       <c r="AK86" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.65036007835824305</v>
+        <v>0.64940519565762633</v>
       </c>
       <c r="AL86" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.77444961538454515</v>
+        <v>0.77448622514757648</v>
       </c>
     </row>
     <row r="87" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH87" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.28241858961078581</v>
+        <v>0.27976244461143068</v>
       </c>
       <c r="AI87" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.40814301788791524</v>
+        <v>0.40809236780977604</v>
       </c>
       <c r="AJ87" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.52968681897250713</v>
+        <v>0.52831685954447904</v>
       </c>
       <c r="AK87" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.6542115615704559</v>
+        <v>0.65621040362621119</v>
       </c>
       <c r="AL87" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.77976376169454187</v>
+        <v>0.77793885413589781</v>
       </c>
     </row>
     <row r="88" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH88" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.28706987277587559</v>
+        <v>0.28652547217625335</v>
       </c>
       <c r="AI88" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.41261970611214943</v>
+        <v>0.4110796972574734</v>
       </c>
       <c r="AJ88" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.53487680468423249</v>
+        <v>0.53304555564852307</v>
       </c>
       <c r="AK88" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.65842776539224601</v>
+        <v>0.66185981704449692</v>
       </c>
       <c r="AL88" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.78492972799492955</v>
+        <v>0.78614795482493305</v>
       </c>
     </row>
     <row r="89" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH89" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.29411284845668401</v>
+        <v>0.29185016861969271</v>
       </c>
       <c r="AI89" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.42125957082254573</v>
+        <v>0.42082241470436765</v>
       </c>
       <c r="AJ89" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.54137258702911328</v>
+        <v>0.53993360479597829</v>
       </c>
       <c r="AK89" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.66786995958254147</v>
+        <v>0.66921617859653293</v>
       </c>
       <c r="AL89" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.78887878848015891</v>
+        <v>0.79041372345994365</v>
       </c>
     </row>
     <row r="90" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH90" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.29679833262699551</v>
+        <v>0.29703082136078651</v>
       </c>
       <c r="AI90" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.42513092002062819</v>
+        <v>0.42296500237606927</v>
       </c>
       <c r="AJ90" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.54609544492492013</v>
+        <v>0.5428653177016145</v>
       </c>
       <c r="AK90" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.67003397534663445</v>
+        <v>0.67166112736371808</v>
       </c>
       <c r="AL90" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.7936091555671102</v>
+        <v>0.79378898896563366</v>
       </c>
     </row>
     <row r="91" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH91" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.29998689898997238</v>
+        <v>0.30003513934428155</v>
       </c>
       <c r="AI91" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.42704684056099612</v>
+        <v>0.4251731745285402</v>
       </c>
       <c r="AJ91" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.54947656718014704</v>
+        <v>0.54755642446037811</v>
       </c>
       <c r="AK91" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.67493511831038788</v>
+        <v>0.67671047465006173</v>
       </c>
       <c r="AL91" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.79731131314178871</v>
+        <v>0.79595873544541906</v>
       </c>
     </row>
     <row r="92" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH92" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.30374329761933455</v>
+        <v>0.30594930435115247</v>
       </c>
       <c r="AI92" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.43321151793121226</v>
+        <v>0.43115310932949058</v>
       </c>
       <c r="AJ92" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.55540606208251742</v>
+        <v>0.55007542321167191</v>
       </c>
       <c r="AK92" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.67724316999435685</v>
+        <v>0.68183655045998459</v>
       </c>
       <c r="AL92" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.8035450941603155</v>
+        <v>0.79894253312679142</v>
       </c>
     </row>
     <row r="93" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH93" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.30374329761933455</v>
+        <v>0.30594930435115247</v>
       </c>
       <c r="AI93" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.43321151793121226</v>
+        <v>0.43115310932949058</v>
       </c>
       <c r="AJ93" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.55540606208251742</v>
+        <v>0.55007542321167191</v>
       </c>
       <c r="AK93" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.67724316999435685</v>
+        <v>0.68183655045998459</v>
       </c>
       <c r="AL93" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.8035450941603155</v>
+        <v>0.79894253312679142</v>
       </c>
     </row>
     <row r="94" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH94" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.30994934003814323</v>
+        <v>0.31664795988214206</v>
       </c>
       <c r="AI94" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.43867781569342629</v>
+        <v>0.4407877441049286</v>
       </c>
       <c r="AJ94" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.56630989937926057</v>
+        <v>0.55779335099299843</v>
       </c>
       <c r="AK94" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.68669326961018584</v>
+        <v>0.69264986749646906</v>
       </c>
       <c r="AL94" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.81561970007191775</v>
+        <v>0.81266524001729945</v>
       </c>
     </row>
     <row r="95" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH95" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.31541779084713495</v>
+        <v>0.3191921426191125</v>
       </c>
       <c r="AI95" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.44284914714924439</v>
+        <v>0.44400998930923963</v>
       </c>
       <c r="AJ95" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.57036586640834475</v>
+        <v>0.56361911624879713</v>
       </c>
       <c r="AK95" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.69265124572259296</v>
+        <v>0.69818450450920178</v>
       </c>
       <c r="AL95" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.82043030594078847</v>
+        <v>0.8156227737806051</v>
       </c>
     </row>
     <row r="96" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH96" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.31739451910000033</v>
+        <v>0.32097962163789351</v>
       </c>
       <c r="AI96" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.44679470570226959</v>
+        <v>0.44627065267430843</v>
       </c>
       <c r="AJ96" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.5745229329192072</v>
+        <v>0.5681612442377455</v>
       </c>
       <c r="AK96" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.69693887376539054</v>
+        <v>0.70317033004612628</v>
       </c>
       <c r="AL96" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.82379579325195029</v>
+        <v>0.81923674638470689</v>
       </c>
     </row>
     <row r="97" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH97" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.32104102149023095</v>
+        <v>0.32684494962333988</v>
       </c>
       <c r="AI97" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.45486857465322461</v>
+        <v>0.45410117764759728</v>
       </c>
       <c r="AJ97" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.57943697942643824</v>
+        <v>0.57150450674772291</v>
       </c>
       <c r="AK97" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.70278186640917772</v>
+        <v>0.70631021300109564</v>
       </c>
       <c r="AL97" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.82955854235826731</v>
+        <v>0.82363424408407071</v>
       </c>
     </row>
     <row r="98" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH98" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.33034900287327451</v>
+        <v>0.33478096404211516</v>
       </c>
       <c r="AI98" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.46178313104963614</v>
+        <v>0.46021222290534997</v>
       </c>
       <c r="AJ98" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.5861649928486079</v>
+        <v>0.57622234072857836</v>
       </c>
       <c r="AK98" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.70652448346603525</v>
+        <v>0.71027922447998426</v>
       </c>
       <c r="AL98" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.83823310593283762</v>
+        <v>0.82784277356615055</v>
       </c>
     </row>
     <row r="99" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH99" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.33605758770379196</v>
+        <v>0.3417869466178512</v>
       </c>
       <c r="AI99" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.46700405069920042</v>
+        <v>0.46734946052262799</v>
       </c>
       <c r="AJ99" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.59004157282020131</v>
+        <v>0.58041845144549364</v>
       </c>
       <c r="AK99" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.71159620022474701</v>
+        <v>0.71416268249632542</v>
       </c>
       <c r="AL99" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.8423565036966757</v>
+        <v>0.83568486926484087</v>
       </c>
     </row>
     <row r="100" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH100" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.34098565726363067</v>
+        <v>0.34899979893677191</v>
       </c>
       <c r="AI100" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.47061793221076803</v>
+        <v>0.47558998190725194</v>
       </c>
       <c r="AJ100" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.59512164500806308</v>
+        <v>0.58468098667362922</v>
       </c>
       <c r="AK100" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.71554612598386369</v>
+        <v>0.71796186359470016</v>
       </c>
       <c r="AL100" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.84762565144779767</v>
+        <v>0.8422913044816791</v>
       </c>
     </row>
     <row r="101" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH101" s="30">
         <f t="shared" ca="1" si="120"/>
-        <v>0.3479970481584595</v>
+        <v>0.35631147254435624</v>
       </c>
       <c r="AI101" s="34">
         <f t="shared" ca="1" si="121"/>
-        <v>0.4777553823228855</v>
+        <v>0.48378569402548294</v>
       </c>
       <c r="AJ101" s="30">
         <f t="shared" ca="1" si="122"/>
-        <v>0.60328541260644908</v>
+        <v>0.58874160188441982</v>
       </c>
       <c r="AK101" s="30">
         <f t="shared" ca="1" si="123"/>
-        <v>0.71928197501487712</v>
+        <v>0.72651814639068668</v>
       </c>
       <c r="AL101" s="30">
         <f t="shared" ca="1" si="124"/>
-        <v>0.85280872370908578</v>
+        <v>0.84702193241238111</v>
       </c>
     </row>
     <row r="102" spans="34:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH102" s="32">
         <f t="shared" ca="1" si="120"/>
-        <v>0.35195705830231522</v>
+        <v>0.36012944039290368</v>
       </c>
       <c r="AI102" s="35">
         <f t="shared" ca="1" si="121"/>
-        <v>0.48322264121231195</v>
+        <v>0.49080451229156385</v>
       </c>
       <c r="AJ102" s="32">
         <f t="shared" ca="1" si="122"/>
-        <v>0.60796777593544238</v>
+        <v>0.59839995287220871</v>
       </c>
       <c r="AK102" s="32">
         <f t="shared" ca="1" si="123"/>
-        <v>0.72554701719969783</v>
+        <v>0.7361616070095709</v>
       </c>
       <c r="AL102" s="32">
         <f t="shared" ca="1" si="124"/>
-        <v>0.86036925694378963</v>
+        <v>0.85649379342343668</v>
       </c>
     </row>
     <row r="103" spans="34:38" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:AA2"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="H25:L25"/>
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="R25:V25"/>
     <mergeCell ref="W25:AA25"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="W2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
